--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-20" windowWidth="21360" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="28780" yWindow="-7940" windowWidth="25040" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,10 @@
     <sheet name="10GB" sheetId="3" r:id="rId3"/>
     <sheet name="20GB" sheetId="4" r:id="rId4"/>
     <sheet name="40GB" sheetId="5" r:id="rId5"/>
+    <sheet name="3 machines" sheetId="6" r:id="rId6"/>
+    <sheet name="10GB-3machines" sheetId="7" r:id="rId7"/>
+    <sheet name="20GB-3machines" sheetId="8" r:id="rId8"/>
+    <sheet name="40GB-3machines" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -23,238 +27,709 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="185">
+  <si>
+    <t>Intermediatedata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rreduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of concurent transfers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 data units are created</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqeuences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmr stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmrstderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 9360 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 6240 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>tts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local PMR on 6240MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer 3120MB using SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distributed to 8 reduces on B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distiuted to 8 reduces on A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution of data to each Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1minute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>exchanged.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MR </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Chunk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shuffletime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reduce phase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Combine LMR on (5952*2) MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Chunk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shuffletime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reduce phase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Combine LMR on (5932*2) MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>29minutes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> in 29 minutes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>29mins</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local Data in MB transferred within India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>time taken to distribute data to remote machines</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>14mins</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;1min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Remote Data in MB transferred to </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> effective data transfer in MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>remote data distribution= 7mins</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR on India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 6120 MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR on India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Input data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Input data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hadoop MR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>stderr for total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>stderr ofr pmr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>stderr for hmr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hadoop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>default replication factor - 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chunk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2500000 lines which is  625000 sequences</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Workers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shuffle starts after map phase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setup</t>
@@ -270,270 +745,23 @@
   </si>
   <si>
     <t>Local-PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setup-load data time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Input data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 minutes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local PMR on 6240MB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer 3120MB using SCP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9GB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 LOCAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distributed to 8 reduces on B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distiuted to 8 reduces on A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution of data to each Reduce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1minute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>exchanged.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of MR </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -547,8 +775,13 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -599,7 +832,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +851,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -631,35 +870,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,11 +1158,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="577998888"/>
-        <c:axId val="578462904"/>
+        <c:axId val="579264664"/>
+        <c:axId val="579386840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="577998888"/>
+        <c:axId val="579264664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,14 +1187,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578462904"/>
+        <c:crossAx val="579386840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="578462904"/>
+        <c:axId val="579386840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1219,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="577998888"/>
+        <c:crossAx val="579264664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,24 +1581,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="513958712"/>
-        <c:axId val="70964232"/>
+        <c:axId val="579415320"/>
+        <c:axId val="579418456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513958712"/>
+        <c:axId val="579415320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70964232"/>
+        <c:crossAx val="579418456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70964232"/>
+        <c:axId val="579418456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1606,545 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513958712"/>
+        <c:crossAx val="579415320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127972690122595"/>
+          <c:y val="0.0509259259259259"/>
+          <c:w val="0.793585567626831"/>
+          <c:h val="0.7261402741324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 machines'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'2 machines'!$L$22:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>81.44266875789288</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.78648649790395</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32.5780795376588</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.41389208309275</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'2 machines'!$L$22:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>81.44266875789288</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.78648649790395</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>32.5780795376588</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.41389208309275</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 machines'!$I$22:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80GB(replicated)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 machines'!$J$22:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2652.282551056035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4528.822149425286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8375.575505747127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7606.747919540229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 machines'!$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distributed-PMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'2 machines'!$M$22:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>56.4235742079842</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.99143797488644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>91.17493071590467</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>91.17493071590467</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'2 machines'!$M$22:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>56.4235742079842</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.99143797488644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>91.17493071590467</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>91.17493071590467</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 machines'!$I$22:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80GB(replicated)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 machines'!$K$22:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2279.393333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4239.813333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7884.053333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7884.053333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="513961160"/>
+        <c:axId val="596640824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="513961160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input seqeuence file size in GB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="596640824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="596640824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime(in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513961160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.187381042559553"/>
+          <c:y val="0.0829494750656168"/>
+          <c:w val="0.212618957440447"/>
+          <c:h val="0.173874167171411"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 machines'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'3 machines'!$L$17:$N$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>102.6674448645904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>92.90108111421308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100.5843915758151</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'3 machines'!$L$17:$N$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>102.6674448645904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>92.90108111421308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100.5843915758151</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 machines'!$L$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 machines'!$L$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2984.350139597701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5538.118927203065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9359.532172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 machines'!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed-PMR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'3 machines'!$L$18:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>53.54597837390223</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>93.06836154855999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'3 machines'!$L$18:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>53.54597837390223</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>93.06836154855999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 machines'!$L$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 machines'!$L$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2416.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4321.204444444445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="586635336"/>
+        <c:axId val="584774888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="586635336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="584774888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584774888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="586635336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,6 +2220,76 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1768,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -1776,7 +2628,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1786,45 +2638,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1953,33 +2805,33 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2119,13 +2971,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1"/>
     <row r="43" spans="1:14">
       <c r="J43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2163,24 +3015,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -2199,7 +3051,7 @@
         <v>2208.0443333333333</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -2219,7 +3071,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -2238,7 +3090,7 @@
         <v>2123.8213333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -2258,7 +3110,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="H48" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -2278,7 +3130,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -2340,8 +3192,7 @@
       <c r="G81" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -2354,74 +3205,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="11">
         <v>1996.0322450000001</v>
       </c>
@@ -2439,11 +3309,14 @@
         <f>MAX(A9:B9)+C9+D9</f>
         <v>2705.1814454310347</v>
       </c>
+      <c r="F9" s="17">
+        <v>3120</v>
+      </c>
       <c r="K9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="11">
         <v>1960.294715</v>
       </c>
@@ -2461,11 +3334,18 @@
         <f>MAX(A10:B10)+C10+D10</f>
         <v>2681.3405951185346</v>
       </c>
-      <c r="F10" s="17">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(E9:E11)</f>
+        <v>2652.2825510560347</v>
+      </c>
+      <c r="I10">
+        <v>19029605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="11">
         <v>1875.3710450000001</v>
       </c>
@@ -2483,44 +3363,55 @@
         <f>MAX(A11:B11)+C11+D11</f>
         <v>2570.3256126185343</v>
       </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
+        <v>81.442668757892889</v>
+      </c>
       <c r="K11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12">
+        <f>(F9-F17)/F17*100</f>
+        <v>150</v>
+      </c>
       <c r="K12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="65">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="65">
+      <c r="A16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <f>263.31/2</f>
         <v>131.655</v>
@@ -2546,7 +3437,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:14">
       <c r="A18">
         <f xml:space="preserve"> 304.59/2</f>
         <v>152.29499999999999</v>
@@ -2564,8 +3455,15 @@
         <f>SUM(A18:D18)</f>
         <v>2256.0450000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(E17:E19)</f>
+        <v>2279.3933333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <f>268.72/2</f>
         <v>134.36000000000001</v>
@@ -2583,31 +3481,152 @@
         <f>SUM(A19:D19)</f>
         <v>2245.4900000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="65">
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
+        <v>56.423574207984203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>2652.2825510560347</v>
+      </c>
+      <c r="K22">
+        <v>2279.3933333333334</v>
+      </c>
+      <c r="L22">
+        <v>81.442668757892889</v>
+      </c>
+      <c r="M22">
+        <v>56.423574207984203</v>
+      </c>
+      <c r="N22">
+        <f>(J22-K22)/J22*100</f>
+        <v>14.059181499129171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>4528.8221494252866</v>
+      </c>
+      <c r="K23">
+        <v>4239.8133333333335</v>
+      </c>
+      <c r="L23">
+        <v>74.786486497903951</v>
+      </c>
+      <c r="M23">
+        <v>63.991437974886438</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="0">(J23-K23)/J23*100</f>
+        <v>6.3815448378477111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <v>8375.575505747127</v>
+      </c>
+      <c r="K24">
+        <v>7884.0533333333333</v>
+      </c>
+      <c r="L24">
+        <v>32.578079537658802</v>
+      </c>
+      <c r="M24">
+        <v>91.174930715904665</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>5.8685181940813802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>7606.7479195402293</v>
+      </c>
+      <c r="K25">
+        <v>7884.0533333333333</v>
+      </c>
+      <c r="L25">
+        <v>21.413892083092751</v>
+      </c>
+      <c r="M25">
+        <v>91.174930715904665</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-3.6455186464213076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:14" ht="65">
       <c r="A28" s="19" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
-        <f>B41+D41</f>
-        <v>3175.59</v>
+        <f>B41+D41+A41</f>
+        <v>3428.83</v>
       </c>
       <c r="B29">
         <v>2914.9259999999999</v>
@@ -2621,16 +3640,16 @@
       </c>
       <c r="E29" s="11">
         <f>MAX(A29:B29)+C29+D29</f>
-        <v>4566.1878160919541</v>
+        <v>4819.4278160919539</v>
       </c>
       <c r="F29" s="17">
         <v>5932</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:14">
       <c r="A30">
-        <f t="shared" ref="A30:A31" si="0">B42+D42</f>
-        <v>3172.66</v>
+        <f>B42+D42+A42</f>
+        <v>3433.0899999999997</v>
       </c>
       <c r="B30">
         <v>2837.6559999999999</v>
@@ -2644,13 +3663,20 @@
       </c>
       <c r="E30" s="11">
         <f>MAX(A30:B30)+C30+D30</f>
-        <v>4572.3678160919535</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1">
+        <v>4832.7978160919538</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(E29:E31)</f>
+        <v>4788.1521494252875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>3064.2</v>
+        <f>B43+D43+A43</f>
+        <v>3328.52</v>
       </c>
       <c r="B31">
         <v>2869.0210000000002</v>
@@ -2664,41 +3690,47 @@
       </c>
       <c r="E31" s="11">
         <f>MAX(A31:B31)+C31+D31</f>
-        <v>4447.9108160919541</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>4712.2308160919538</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
+        <v>74.786486497903951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="E32" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="65">
+      <c r="H32">
+        <f>(F29-F41)/F41*100</f>
+        <v>138.52030558906313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="65">
       <c r="A40" s="16" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <f>506.48/2</f>
         <v>253.24</v>
@@ -2726,7 +3758,7 @@
         <v>36912</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>260.43</v>
       </c>
@@ -2744,8 +3776,18 @@
         <f t="shared" ref="E42:E43" si="2">SUM(A42:D42)</f>
         <v>4273.09</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(E41:E43)</f>
+        <v>4239.8133333333335</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>264.32</v>
       </c>
@@ -2762,195 +3804,374 @@
         <f t="shared" si="2"/>
         <v>4174.5200000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
+        <v>63.991437974886438</v>
+      </c>
+      <c r="I43">
+        <f>19029605*2</f>
+        <v>38059210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="F46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="65">
-      <c r="A53" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <f>A67+B67+D67</f>
+    </row>
+    <row r="52" spans="1:12" s="21" customFormat="1">
+      <c r="E52" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="65">
+      <c r="A54" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>6208.59</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <f>895+70*60+767</f>
         <v>5862</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C55" s="11">
+        <f>8946/43.5</f>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D55">
+        <v>1978.21</v>
+      </c>
+      <c r="E55" s="11">
+        <f>MAX(A55:B55)+C55+D55</f>
+        <v>8392.4551724137928</v>
+      </c>
+      <c r="F55" s="20">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>6234.8459999999995</v>
+      </c>
+      <c r="B56">
+        <v>5863.4129999999996</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" ref="C56:C57" si="3">8946/43.5</f>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D56">
+        <v>1970.36</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" ref="E56:E57" si="4">MAX(A56:B56)+C56+D56</f>
+        <v>8410.8611724137936</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(E55:E57)</f>
+        <v>8385.9088390804609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>6163.4449999999997</v>
+      </c>
+      <c r="B57">
+        <v>5811.2950000000001</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="3"/>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1985.31</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="4"/>
+        <v>8354.4101724137927</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57">
+        <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
+        <v>32.578079537658802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="65">
+      <c r="A59" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <f>1106/2</f>
+        <v>553</v>
+      </c>
+      <c r="B60">
+        <v>4859.67</v>
+      </c>
+      <c r="C60">
+        <f>29*60+3</f>
+        <v>1743</v>
+      </c>
+      <c r="D60">
+        <v>795.92</v>
+      </c>
+      <c r="E60">
+        <f>SUM(A60:D60)</f>
+        <v>7951.59</v>
+      </c>
+      <c r="F60" s="17">
+        <v>4425</v>
+      </c>
+      <c r="I60">
+        <f>38059210*2</f>
+        <v>76118420</v>
+      </c>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <f>1120/2</f>
+        <v>560</v>
+      </c>
+      <c r="B61">
+        <v>4790.34</v>
+      </c>
+      <c r="C61">
+        <f>28*60</f>
+        <v>1680</v>
+      </c>
+      <c r="D61">
+        <v>764.53</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:E62" si="5">SUM(A61:D61)</f>
+        <v>7794.87</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <f>AVERAGE(E60:E62)</f>
+        <v>7884.0533333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <f>1103/2</f>
+        <v>551.5</v>
+      </c>
+      <c r="B62">
+        <v>4798.96</v>
+      </c>
+      <c r="C62">
+        <f>29*60</f>
+        <v>1740</v>
+      </c>
+      <c r="D62">
+        <v>815.24</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>7905.7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62">
+        <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
+        <v>91.174930715904665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="H63">
+        <f>(F55-F60)/F60*100</f>
+        <v>102.16949152542374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="21" customFormat="1">
+      <c r="E66" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="65">
+      <c r="A70" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <f>A60+B60+D60</f>
+        <v>6208.59</v>
+      </c>
+      <c r="B71">
+        <f>895+70*60+767</f>
+        <v>5862</v>
+      </c>
+      <c r="C71" s="11">
         <f>5952/43.5</f>
         <v>136.82758620689654</v>
       </c>
-      <c r="D54">
+      <c r="D71">
         <v>1267.21</v>
       </c>
-      <c r="E54" s="11">
-        <f>MAX(A54:B54)+C54+D54</f>
+      <c r="E71" s="11">
+        <f>MAX(A71:B71)+C71+D71</f>
         <v>7612.6275862068969</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+      <c r="F71" s="20">
+        <v>5952</v>
+      </c>
+      <c r="J71">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
         <v>6234.8459999999995</v>
       </c>
-      <c r="B55">
+      <c r="B72">
         <v>5863.4129999999996</v>
       </c>
-      <c r="C55" s="11">
-        <f t="shared" ref="C55:C56" si="3">5952/43.5</f>
+      <c r="C72" s="11">
+        <f t="shared" ref="C72:C73" si="6">5952/43.5</f>
         <v>136.82758620689654</v>
       </c>
-      <c r="D55">
+      <c r="D72">
         <v>1250.3599999999999</v>
       </c>
-      <c r="E55" s="11">
-        <f t="shared" ref="E55:E56" si="4">MAX(A55:B55)+C55+D55</f>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72:E73" si="7">MAX(A72:B72)+C72+D72</f>
         <v>7622.033586206896</v>
       </c>
-      <c r="F55">
-        <v>5952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72">
+        <f>AVERAGE(E71:E73)</f>
+        <v>7606.7479195402293</v>
+      </c>
+      <c r="H72">
+        <f>(F71-F60)/F60*100</f>
+        <v>34.508474576271183</v>
+      </c>
+      <c r="J72" s="11">
+        <v>637.42506249999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
         <v>6163.4449999999997</v>
       </c>
-      <c r="B56">
+      <c r="B73">
         <v>5811.2950000000001</v>
       </c>
-      <c r="C56" s="11">
-        <f t="shared" si="3"/>
+      <c r="C73" s="11">
+        <f t="shared" si="6"/>
         <v>136.82758620689654</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D73" s="2">
         <v>1285.31</v>
       </c>
-      <c r="E56" s="11">
-        <f t="shared" si="4"/>
+      <c r="E73" s="11">
+        <f t="shared" si="7"/>
         <v>7585.5825862068959</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="E64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="65">
-      <c r="A66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="F73" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67">
-        <f>1106/2</f>
-        <v>553</v>
-      </c>
-      <c r="B67">
-        <v>4859.67</v>
-      </c>
-      <c r="C67">
-        <f>29*60+3</f>
-        <v>1743</v>
-      </c>
-      <c r="D67">
-        <v>795.92</v>
-      </c>
-      <c r="E67">
-        <f>SUM(A67:D67)</f>
-        <v>7951.59</v>
-      </c>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68">
-        <f>1120/2</f>
-        <v>560</v>
-      </c>
-      <c r="B68">
-        <v>4790.34</v>
-      </c>
-      <c r="C68">
-        <f>28*60</f>
-        <v>1680</v>
-      </c>
-      <c r="D68">
-        <v>764.53</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ref="E68:E69" si="5">SUM(A68:D68)</f>
-        <v>7794.87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69">
-        <f>1103/2</f>
-        <v>551.5</v>
-      </c>
-      <c r="B69">
-        <v>4798.96</v>
-      </c>
-      <c r="C69">
-        <f>29*60</f>
-        <v>1740</v>
-      </c>
-      <c r="D69">
-        <v>815.24</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="5"/>
-        <v>7905.7</v>
+      <c r="G73">
+        <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
+        <v>21.413892083092751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="G78">
+        <f>AVERAGE(D55:D57)</f>
+        <v>1977.9599999999998</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2963,133 +4184,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>102</v>
       </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>107</v>
-      </c>
-      <c r="H10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>9262</v>
+        <v>9862</v>
       </c>
       <c r="D21">
         <v>1109</v>
@@ -3143,13 +4364,13 @@
     <row r="26" spans="1:12">
       <c r="G26">
         <f>C21+C28</f>
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3165,7 +4386,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -3209,56 +4430,56 @@
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41">
-        <v>9262</v>
+        <v>9862</v>
       </c>
       <c r="D41">
         <f>SUM('10GB'!D21:D24)</f>
@@ -3269,7 +4490,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3283,7 +4504,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -3292,10 +4513,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -3309,7 +4530,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -3322,7 +4543,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -3330,8 +4551,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3347,46 +4567,46 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -3400,17 +4620,17 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -3419,10 +4639,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -3436,10 +4656,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -3449,7 +4669,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
@@ -3458,27 +4678,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -3528,13 +4748,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3550,7 +4770,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -3588,8 +4808,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3605,46 +4824,46 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -3658,17 +4877,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -3677,10 +4896,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -3694,10 +4913,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -3707,7 +4926,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -3716,27 +4935,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -3786,13 +5005,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3808,7 +5027,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -3846,8 +5065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3856,4 +5074,1309 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="65">
+      <c r="A2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="O2">
+        <v>6240</v>
+      </c>
+      <c r="P2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11">
+        <v>1996.0322450000001</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1742.8240000000001</v>
+      </c>
+      <c r="C3" s="11">
+        <f>3120/43.5</f>
+        <v>71.724137931034477</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>988.34</v>
+      </c>
+      <c r="F3" s="11">
+        <f>MAX(A3:B3)+C3+E3</f>
+        <v>3056.0963829310349</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3120</v>
+      </c>
+      <c r="O3">
+        <f>5952*2</f>
+        <v>11904</v>
+      </c>
+      <c r="P3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11">
+        <v>1960.294715</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1813.597</v>
+      </c>
+      <c r="C4" s="11">
+        <f>3120/43.5</f>
+        <v>71.724137931034477</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>982.57</v>
+      </c>
+      <c r="F4" s="11">
+        <f>MAX(A4:B4)+C4+E4</f>
+        <v>3014.5888529310346</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(F3:F5)</f>
+        <v>2984.3501395977014</v>
+      </c>
+      <c r="O4">
+        <f>8946*2</f>
+        <v>17892</v>
+      </c>
+      <c r="P4">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="11">
+        <v>1875.3710450000001</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1738.2349999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <f>3120/43.5</f>
+        <v>71.724137931034477</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>935.27</v>
+      </c>
+      <c r="F5" s="11">
+        <f>MAX(A5:B5)+C5+E5</f>
+        <v>2882.3651829310347</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
+        <v>102.66744486459044</v>
+      </c>
+      <c r="O5">
+        <v>9360</v>
+      </c>
+      <c r="P5">
+        <f>0.115*O5-88.142</f>
+        <v>988.25800000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="O6">
+        <f>5932*3</f>
+        <v>17796</v>
+      </c>
+      <c r="P6">
+        <f>0.115*O6-88.142</f>
+        <v>1958.3980000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="O7">
+        <f>8946*3</f>
+        <v>26838</v>
+      </c>
+      <c r="P7">
+        <f>0.115*O7-88.142</f>
+        <v>2998.2280000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="65">
+      <c r="A11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <f>463.31/3</f>
+        <v>154.43666666666667</v>
+      </c>
+      <c r="B12">
+        <v>1536.21</v>
+      </c>
+      <c r="C12">
+        <f>7*60+10</f>
+        <v>430</v>
+      </c>
+      <c r="D12">
+        <v>332.85</v>
+      </c>
+      <c r="E12">
+        <f>SUM(A12:D12)</f>
+        <v>2453.4966666666664</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1264</v>
+      </c>
+      <c r="G12">
+        <v>28396</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <f xml:space="preserve"> 504.59/3</f>
+        <v>168.19666666666666</v>
+      </c>
+      <c r="B13">
+        <v>1431.79</v>
+      </c>
+      <c r="C13">
+        <v>424</v>
+      </c>
+      <c r="D13">
+        <v>339.45</v>
+      </c>
+      <c r="E13">
+        <f>SUM(A13:D13)</f>
+        <v>2363.4366666666665</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(E12:E14)</f>
+        <v>2416.8599999999997</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>2984.3501395977014</v>
+      </c>
+      <c r="M13">
+        <v>5538.1189272030651</v>
+      </c>
+      <c r="N13">
+        <v>9359.5321719999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <f>518.72/3</f>
+        <v>172.90666666666667</v>
+      </c>
+      <c r="B14">
+        <v>1489.98</v>
+      </c>
+      <c r="C14">
+        <v>425</v>
+      </c>
+      <c r="D14">
+        <v>345.76</v>
+      </c>
+      <c r="E14">
+        <f>SUM(A14:D14)</f>
+        <v>2433.6466666666665</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
+        <v>53.54597837390223</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14">
+        <v>2416.8599999999997</v>
+      </c>
+      <c r="M14">
+        <v>4321.2044444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>102.66744486459044</v>
+      </c>
+      <c r="M17">
+        <v>92.901081114213085</v>
+      </c>
+      <c r="N17">
+        <v>100.58439157581509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <v>53.54597837390223</v>
+      </c>
+      <c r="M18">
+        <v>93.068361548559992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:14" ht="65">
+      <c r="A22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <f>B30+D30+A30</f>
+        <v>3437.1733333333336</v>
+      </c>
+      <c r="B23">
+        <v>2914.9259999999999</v>
+      </c>
+      <c r="C23" s="11">
+        <f>5932/43.5</f>
+        <v>136.36781609195401</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1957.31</v>
+      </c>
+      <c r="F23" s="11">
+        <f>MAX(A23:B23)+C23+E23</f>
+        <v>5530.8511494252871</v>
+      </c>
+      <c r="G23" s="17">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <f>B31+D31+A31</f>
+        <v>3358.99</v>
+      </c>
+      <c r="B24">
+        <v>2837.6559999999999</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" ref="C24:D25" si="0">5932/43.5</f>
+        <v>136.36781609195401</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1964.54</v>
+      </c>
+      <c r="F24" s="11">
+        <f>MAX(A24:B24)+C24+E24</f>
+        <v>5459.8978160919542</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(F23:F25)</f>
+        <v>5538.1189272030651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <f>B32+D32+A32</f>
+        <v>3508.45</v>
+      </c>
+      <c r="B25">
+        <v>2869.0210000000002</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>136.36781609195401</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1978.79</v>
+      </c>
+      <c r="F25" s="11">
+        <f>MAX(A25:B25)+C25+E25</f>
+        <v>5623.6078160919533</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
+        <v>92.901081114213085</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="65">
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <f>766.48/3</f>
+        <v>255.49333333333334</v>
+      </c>
+      <c r="B30">
+        <v>2765.76</v>
+      </c>
+      <c r="C30">
+        <f>14*60+13</f>
+        <v>853</v>
+      </c>
+      <c r="D30">
+        <v>415.92</v>
+      </c>
+      <c r="E30">
+        <f>SUM(A30:D30)</f>
+        <v>4290.1733333333332</v>
+      </c>
+      <c r="F30" s="17">
+        <v>2615</v>
+      </c>
+      <c r="G30">
+        <v>55404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>275.63</v>
+      </c>
+      <c r="B31">
+        <v>2678.83</v>
+      </c>
+      <c r="C31">
+        <f>15*60</f>
+        <v>900</v>
+      </c>
+      <c r="D31">
+        <v>404.53</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E32" si="1">SUM(A31:D31)</f>
+        <v>4258.99</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(E30:E32)</f>
+        <v>4321.2044444444446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>269.72000000000003</v>
+      </c>
+      <c r="B32">
+        <v>2843.49</v>
+      </c>
+      <c r="C32">
+        <v>906</v>
+      </c>
+      <c r="D32">
+        <v>395.24</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>4414.45</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
+        <v>93.068361548559992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" ht="65">
+      <c r="A37" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>6208.59</v>
+      </c>
+      <c r="B38">
+        <f>895+70*60+767</f>
+        <v>5862</v>
+      </c>
+      <c r="C38" s="11">
+        <f>8946/43.5</f>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2998.56</v>
+      </c>
+      <c r="F38" s="11">
+        <f>MAX(A38:B38)+C38+E38</f>
+        <v>9412.8051724137931</v>
+      </c>
+      <c r="G38" s="20">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>6234.8459999999995</v>
+      </c>
+      <c r="B39">
+        <v>5863.4129999999996</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" ref="C39:C40" si="2">8946/43.5</f>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2968.37</v>
+      </c>
+      <c r="F39" s="11">
+        <f>MAX(A39:B39)+C39+E39</f>
+        <v>9408.8711724137938</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(F38:F40)</f>
+        <v>9359.5321724137939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>6163.4449999999997</v>
+      </c>
+      <c r="B40">
+        <v>5811.2950000000001</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="2"/>
+        <v>205.65517241379311</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2887.82</v>
+      </c>
+      <c r="F40" s="11">
+        <f>MAX(A40:B40)+C40+E40</f>
+        <v>9256.9201724137929</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
+        <v>100.58439157581509</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="65">
+      <c r="A44" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A4:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="4" spans="1:12">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="39">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>9862</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <f>SUM(F8:H8)</f>
+        <v>3321</v>
+      </c>
+      <c r="F8">
+        <v>1109</v>
+      </c>
+      <c r="G8">
+        <v>1106</v>
+      </c>
+      <c r="H8">
+        <v>1106</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>SUM(F9:H9)</f>
+        <v>3551</v>
+      </c>
+      <c r="F9">
+        <v>1139</v>
+      </c>
+      <c r="G9">
+        <v>1206</v>
+      </c>
+      <c r="H9">
+        <v>1206</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:H10)</f>
+        <v>3482</v>
+      </c>
+      <c r="F10">
+        <v>1162</v>
+      </c>
+      <c r="G10">
+        <v>1160</v>
+      </c>
+      <c r="H10">
+        <v>1160</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>9267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3463</v>
+      </c>
+      <c r="F12">
+        <v>1114</v>
+      </c>
+      <c r="G12">
+        <v>1107</v>
+      </c>
+      <c r="H12">
+        <v>1114</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <f>MAX(F8:H18)</f>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3568</v>
+      </c>
+      <c r="F13">
+        <v>1141</v>
+      </c>
+      <c r="G13">
+        <v>1158</v>
+      </c>
+      <c r="H13">
+        <v>1141</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>3566</v>
+      </c>
+      <c r="F14">
+        <v>1144</v>
+      </c>
+      <c r="G14">
+        <v>1150</v>
+      </c>
+      <c r="H14">
+        <v>1144</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16">
+        <f>SUM(C8+C12+C17)</f>
+        <v>28396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>9267</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3531</v>
+      </c>
+      <c r="F17">
+        <v>1132</v>
+      </c>
+      <c r="G17">
+        <v>1139</v>
+      </c>
+      <c r="H17">
+        <v>1132</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>3904</v>
+      </c>
+      <c r="F18">
+        <v>1264</v>
+      </c>
+      <c r="G18">
+        <v>1248</v>
+      </c>
+      <c r="H18">
+        <v>1264</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A7:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="7" spans="1:12" ht="39">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>18468</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <f>SUM(F8:H8)</f>
+        <v>6550</v>
+      </c>
+      <c r="F8">
+        <v>2220</v>
+      </c>
+      <c r="G8">
+        <v>2165</v>
+      </c>
+      <c r="H8">
+        <v>2165</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>SUM(F9:H9)</f>
+        <v>6752</v>
+      </c>
+      <c r="F9">
+        <v>2318</v>
+      </c>
+      <c r="G9">
+        <v>2217</v>
+      </c>
+      <c r="H9">
+        <v>2217</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:H10)</f>
+        <v>7135</v>
+      </c>
+      <c r="F10">
+        <v>2615</v>
+      </c>
+      <c r="G10">
+        <v>2260</v>
+      </c>
+      <c r="H10">
+        <v>2260</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>18468</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>SUM(F12:H12)</f>
+        <v>6611</v>
+      </c>
+      <c r="F12">
+        <v>2173</v>
+      </c>
+      <c r="G12">
+        <v>2265</v>
+      </c>
+      <c r="H12">
+        <v>2173</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <f>MAX(F8:H18)</f>
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f>SUM(F13:H13)</f>
+        <v>6564</v>
+      </c>
+      <c r="F13">
+        <v>2143</v>
+      </c>
+      <c r="G13">
+        <v>2278</v>
+      </c>
+      <c r="H13">
+        <v>2143</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f>SUM(F14:H14)</f>
+        <v>6373</v>
+      </c>
+      <c r="F14">
+        <v>2134</v>
+      </c>
+      <c r="G14">
+        <v>2105</v>
+      </c>
+      <c r="H14">
+        <v>2134</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16">
+        <f>SUM(C8+C12+C17)</f>
+        <v>55404</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>18468</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>SUM(F17:H17)</f>
+        <v>6565</v>
+      </c>
+      <c r="F17">
+        <v>2123</v>
+      </c>
+      <c r="G17">
+        <v>2319</v>
+      </c>
+      <c r="H17">
+        <v>2123</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f>SUM(F18:H18)</f>
+        <v>6974</v>
+      </c>
+      <c r="F18">
+        <v>2346</v>
+      </c>
+      <c r="G18">
+        <v>2282</v>
+      </c>
+      <c r="H18">
+        <v>2346</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-7940" windowWidth="25040" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="28780" yWindow="-7940" windowWidth="25040" windowHeight="14240" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="192">
+  <si>
+    <t>98% intermediate data generated.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22% of intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrent transfers - 4*1+4*1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*2+3*2+2*2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 data units are created</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5952*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 29 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred within India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time taken to distribute data to remote machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Data in MB transferred to </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> effective data transfer in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote data distribution= 7mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr ofr pmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for hmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default replication factor - 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000 lines which is  625000 sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle starts after map phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup-load data time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.48% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.2% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local PMR on 6240MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer 3120MB using SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distributed to 8 reduces on B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distiuted to 8 reduces on A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution of data to each Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1minute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>exchanged.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MR </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Intermediatedata</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -69,10 +572,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>24 data units are created</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>effective data transfer</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,31 +612,83 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>20GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*3) MB</t>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -145,43 +696,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
+    <t>distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqeuences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -189,58 +732,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>80GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqeuences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>dmr stderr</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -294,473 +789,6 @@
   </si>
   <si>
     <t>reduce-0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local PMR on 6240MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer 3120MB using SCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distributed to 8 reduces on B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distiuted to 8 reduces on A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution of data to each Reduce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1minute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>exchanged.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of MR </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5952*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 29 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred within India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time taken to distribute data to remote machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote Data in MB transferred to </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> effective data transfer in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remote data distribution= 7mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr ofr pmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for hmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default replication factor - 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000 lines which is  625000 sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffle starts after map phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-  </si>
-  <si>
-    <t>Reduce</t>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup-load data time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -768,12 +796,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -872,7 +899,7 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -880,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,11 +1185,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="579264664"/>
-        <c:axId val="579386840"/>
+        <c:axId val="464698408"/>
+        <c:axId val="464689272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="579264664"/>
+        <c:axId val="464698408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,14 +1214,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579386840"/>
+        <c:crossAx val="464689272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579386840"/>
+        <c:axId val="464689272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1246,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579264664"/>
+        <c:crossAx val="464698408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1581,24 +1608,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="579415320"/>
-        <c:axId val="579418456"/>
+        <c:axId val="542508216"/>
+        <c:axId val="542505064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="579415320"/>
+        <c:axId val="542508216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579418456"/>
+        <c:crossAx val="542505064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579418456"/>
+        <c:axId val="542505064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1633,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579415320"/>
+        <c:crossAx val="542508216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,11 +1877,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="513961160"/>
-        <c:axId val="596640824"/>
+        <c:axId val="542437128"/>
+        <c:axId val="542427368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513961160"/>
+        <c:axId val="542437128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,14 +1905,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="596640824"/>
+        <c:crossAx val="542427368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596640824"/>
+        <c:axId val="542427368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1937,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513961160"/>
+        <c:crossAx val="542437128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2120,31 +2147,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="586635336"/>
-        <c:axId val="584774888"/>
+        <c:axId val="542338328"/>
+        <c:axId val="542335256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="586635336"/>
+        <c:axId val="542338328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584774888"/>
+        <c:crossAx val="542335256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584774888"/>
+        <c:axId val="542335256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586635336"/>
+        <c:crossAx val="542338328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2655,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2638,45 +2665,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2805,33 +2832,33 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2971,13 +2998,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1"/>
     <row r="43" spans="1:14">
       <c r="J43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3015,24 +3042,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -3051,7 +3078,7 @@
         <v>2208.0443333333333</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -3071,7 +3098,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -3090,7 +3117,7 @@
         <v>2123.8213333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -3110,7 +3137,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="H48" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -3130,7 +3157,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -3207,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3219,12 +3246,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -3232,23 +3259,23 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3257,7 +3284,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3269,26 +3296,26 @@
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3313,7 +3340,7 @@
         <v>3120</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3335,12 +3362,15 @@
         <v>2681.3405951185346</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <f>AVERAGE(E9:E11)</f>
         <v>2652.2825510560347</v>
       </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
       <c r="I10">
         <v>19029605</v>
       </c>
@@ -3364,51 +3394,57 @@
         <v>2570.3256126185343</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G11">
         <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
         <v>81.442668757892889</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="H12">
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
         <f>(F9-F17)/F17*100</f>
         <v>150</v>
       </c>
-      <c r="K12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" t="s">
-        <v>68</v>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="I15">
+        <f>(G10-G18)/G18*100</f>
+        <v>16.359143122411279</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="65">
       <c r="A16" s="22" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3436,6 +3472,9 @@
       <c r="G17">
         <v>19100</v>
       </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
@@ -3456,7 +3495,7 @@
         <v>2256.0450000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <f>AVERAGE(E17:E19)</f>
@@ -3482,7 +3521,7 @@
         <v>2245.4900000000002</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G19">
         <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
@@ -3491,21 +3530,21 @@
     </row>
     <row r="21" spans="1:14">
       <c r="J21" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="I22" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="J22">
         <v>2652.2825510560347</v>
@@ -3526,7 +3565,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="I23" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="J23">
         <v>4528.8221494252866</v>
@@ -3547,7 +3586,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="I24" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>8375.575505747127</v>
@@ -3568,7 +3607,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="I25" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="J25">
         <v>7606.7479195402293</v>
@@ -3593,7 +3632,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3605,22 +3644,22 @@
     </row>
     <row r="28" spans="1:14" ht="65">
       <c r="A28" s="19" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3666,7 +3705,7 @@
         <v>4832.7978160919538</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <f>AVERAGE(E29:E31)</f>
@@ -3693,7 +3732,7 @@
         <v>4712.2308160919538</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G31">
         <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
@@ -3707,27 +3746,33 @@
         <v>138.52030558906313</v>
       </c>
     </row>
+    <row r="37" spans="1:9">
+      <c r="H37">
+        <f>(G30-G42)/G42*100</f>
+        <v>12.933088628712127</v>
+      </c>
+    </row>
     <row r="40" spans="1:9" ht="65">
       <c r="A40" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3777,14 +3822,14 @@
         <v>4273.09</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <f>AVERAGE(E41:E43)</f>
         <v>4239.8133333333335</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3805,7 +3850,7 @@
         <v>4174.5200000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G43">
         <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
@@ -3818,23 +3863,23 @@
     </row>
     <row r="45" spans="1:9">
       <c r="H45" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="C46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="21" customFormat="1">
       <c r="E52" s="21" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3842,22 +3887,22 @@
     </row>
     <row r="54" spans="1:12" ht="65">
       <c r="A54" s="19" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3902,7 +3947,7 @@
         <v>8410.8611724137936</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G56">
         <f>AVERAGE(E55:E57)</f>
@@ -3928,7 +3973,7 @@
         <v>8354.4101724137927</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G57">
         <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
@@ -3937,25 +3982,25 @@
     </row>
     <row r="59" spans="1:12" ht="65">
       <c r="A59" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4006,7 +4051,7 @@
         <v>7794.87</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G61">
         <f>AVERAGE(E60:E62)</f>
@@ -4033,7 +4078,7 @@
         <v>7905.7</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G62">
         <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
@@ -4048,27 +4093,27 @@
     </row>
     <row r="66" spans="1:10" s="21" customFormat="1">
       <c r="E66" s="21" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="65">
       <c r="A70" s="19" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4117,7 +4162,7 @@
         <v>7622.033586206896</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G72">
         <f>AVERAGE(E71:E73)</f>
@@ -4150,7 +4195,7 @@
         <v>7585.5825862068959</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G73">
         <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
@@ -4164,7 +4209,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4184,130 +4228,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39">
       <c r="A20" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>9862</v>
@@ -4323,7 +4367,9 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -4338,6 +4384,10 @@
       <c r="F22">
         <v>2271</v>
       </c>
+      <c r="L22">
+        <f>(98+92+93)/3</f>
+        <v>94.333333333333329</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="D23">
@@ -4363,14 +4413,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="G26">
-        <f>C21+C28</f>
-        <v>19700</v>
+        <f>SUM(E21:E24,E27:E30)</f>
+        <v>9267</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4386,7 +4436,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -4425,58 +4475,58 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>9862</v>
@@ -4490,7 +4540,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -4504,7 +4554,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -4513,10 +4563,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -4530,7 +4580,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -4543,7 +4593,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -4553,7 +4603,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4564,49 +4613,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="65">
+    <row r="1" spans="1:12" ht="65">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -4620,29 +4669,33 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
         <v>2487</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <f>18.46/20</f>
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -4656,10 +4709,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -4667,38 +4720,38 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="J4" s="18" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
         <v>5965</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="52">
+    <row r="10" spans="1:12" ht="52">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -4713,7 +4766,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="D12">
         <v>2374</v>
       </c>
@@ -4724,7 +4777,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="D13">
         <v>2318</v>
       </c>
@@ -4735,7 +4788,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="D14">
         <v>2271</v>
       </c>
@@ -4745,16 +4798,19 @@
       <c r="F14">
         <v>4552</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4770,7 +4826,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -4810,7 +4866,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4824,46 +4879,46 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -4877,17 +4932,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -4896,10 +4951,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -4913,10 +4968,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -4926,7 +4981,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -4935,30 +4990,30 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>18468</v>
+        <v>36454.269</v>
       </c>
       <c r="D11">
         <v>4211</v>
@@ -4968,6 +5023,10 @@
       </c>
       <c r="F11">
         <v>8427</v>
+      </c>
+      <c r="H11">
+        <f>'40GB'!E11/'40GB'!C11*100</f>
+        <v>11.565174986775897</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4980,6 +5039,13 @@
       <c r="F12">
         <v>9168</v>
       </c>
+      <c r="H12">
+        <f>'40GB'!E12/'40GB'!C11*100</f>
+        <v>12.138496042809143</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="D13">
@@ -4991,6 +5057,10 @@
       <c r="F13">
         <v>8712</v>
       </c>
+      <c r="H13">
+        <f>'40GB'!E13/'40GB'!C11*100</f>
+        <v>11.880638725741559</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="D14">
@@ -5002,19 +5072,23 @@
       <c r="F14">
         <v>8388</v>
       </c>
+      <c r="H14">
+        <f>'40GB'!E14/'40GB'!C11*100</f>
+        <v>11.688617319414634</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="D17">
         <v>4224</v>
       </c>
@@ -5024,13 +5098,20 @@
       <c r="F17">
         <v>8453</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="H17">
+        <f>'40GB'!E17/'40GB'!C18*100</f>
+        <v>11.600836105093755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>18468</v>
+        <v>36454.269</v>
       </c>
       <c r="D18">
         <v>4740</v>
@@ -5041,8 +5122,12 @@
       <c r="F18">
         <v>9068</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="H18">
+        <f>'40GB'!E18/'40GB'!C18*100</f>
+        <v>11.872409236898976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="D19">
         <v>4387</v>
       </c>
@@ -5052,8 +5137,12 @@
       <c r="F19">
         <v>8716</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="H19">
+        <f>'40GB'!E19/18468</f>
+        <v>0.23440545808966862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="D20">
         <v>4165</v>
       </c>
@@ -5062,6 +5151,10 @@
       </c>
       <c r="F20">
         <v>8402</v>
+      </c>
+      <c r="H20">
+        <f>'40GB'!E20/18468</f>
+        <v>0.22942386831275721</v>
       </c>
     </row>
   </sheetData>
@@ -5080,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5095,7 +5188,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -5107,25 +5200,25 @@
     </row>
     <row r="2" spans="1:16" ht="65">
       <c r="A2" s="19" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="H2" s="19"/>
       <c r="O2">
@@ -5189,7 +5282,7 @@
         <v>3014.5888529310346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="H4">
         <f>AVERAGE(F3:F5)</f>
@@ -5225,7 +5318,7 @@
         <v>2882.3651829310347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="H5">
         <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
@@ -5261,25 +5354,25 @@
     </row>
     <row r="11" spans="1:16" ht="65">
       <c r="A11" s="22" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5308,13 +5401,13 @@
         <v>28396</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5336,14 +5429,14 @@
         <v>2363.4366666666665</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <f>AVERAGE(E12:E14)</f>
         <v>2416.8599999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="L13">
         <v>2984.3501395977014</v>
@@ -5374,14 +5467,14 @@
         <v>2433.6466666666665</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G14">
         <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
         <v>53.54597837390223</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="L14">
         <v>2416.8599999999997</v>
@@ -5392,7 +5485,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="K17" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="L17">
         <v>102.66744486459044</v>
@@ -5406,7 +5499,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="K18" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="L18">
         <v>53.54597837390223</v>
@@ -5421,7 +5514,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -5433,25 +5526,25 @@
     </row>
     <row r="22" spans="1:14" ht="65">
       <c r="A22" s="19" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5489,7 +5582,7 @@
         <v>2837.6559999999999</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:D25" si="0">5932/43.5</f>
+        <f t="shared" ref="C24:C25" si="0">5932/43.5</f>
         <v>136.36781609195401</v>
       </c>
       <c r="D24" s="11">
@@ -5503,7 +5596,7 @@
         <v>5459.8978160919542</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="H24">
         <f>AVERAGE(F23:F25)</f>
@@ -5533,7 +5626,7 @@
         <v>5623.6078160919533</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="H25">
         <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
@@ -5549,25 +5642,25 @@
     </row>
     <row r="29" spans="1:14" ht="65">
       <c r="A29" s="22" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5615,7 +5708,7 @@
         <v>4258.99</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="G31">
         <f>AVERAGE(E30:E32)</f>
@@ -5640,7 +5733,7 @@
         <v>4414.45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="G32">
         <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
@@ -5662,7 +5755,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -5674,25 +5767,25 @@
     </row>
     <row r="37" spans="1:12" ht="65">
       <c r="A37" s="19" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5743,7 +5836,7 @@
         <v>9408.8711724137938</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F38:F40)</f>
@@ -5772,7 +5865,7 @@
         <v>9256.9201724137929</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="H40">
         <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
@@ -5787,31 +5880,39 @@
     </row>
     <row r="44" spans="1:12" ht="65">
       <c r="A44" s="22" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:12">
+      <c r="A45">
+        <f>1200/3</f>
+        <v>400</v>
+      </c>
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:12">
+      <c r="A46">
+        <f>1161/3</f>
+        <v>387</v>
+      </c>
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:12">
@@ -5820,7 +5921,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5834,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5853,45 +5953,45 @@
     </row>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>9862</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -5910,12 +6010,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -5936,7 +6036,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -5957,18 +6057,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>9267</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>3463</v>
@@ -5992,7 +6092,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>3568</v>
@@ -6012,7 +6112,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>3566</v>
@@ -6032,7 +6132,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6043,13 +6143,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>9267</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>3531</v>
@@ -6069,7 +6169,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>3904</v>
@@ -6101,55 +6201,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A7:L18"/>
+  <dimension ref="A7:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>18468</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -6168,12 +6268,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -6194,7 +6294,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -6215,18 +6315,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>18468</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -6251,7 +6351,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <f>SUM(F13:H13)</f>
@@ -6272,7 +6372,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -6293,7 +6393,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6304,13 +6404,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>18468</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E17">
         <f>SUM(F17:H17)</f>
@@ -6331,7 +6431,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <f>SUM(F18:H18)</f>
@@ -6350,10 +6450,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="2:10">
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-7940" windowWidth="25040" windowHeight="14240" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="12620" yWindow="-20" windowWidth="12860" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="197">
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.48% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate data in case of PMR is 18468MB for 20GB whichis 92%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate data in case of PMR is 36454.269MB  for 40GB whichis 91.4%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>98% intermediate data generated.</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -277,518 +301,514 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.2% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local PMR on 6240MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer 3120MB using SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distributed to 8 reduces on B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distiuted to 8 reduces on A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution of data to each Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1minute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>exchanged.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MR </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediatedata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rreduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of concurent transfers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqeuences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmr stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmrstderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 9360 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 6240 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.48% of intermediate transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31.2% of intermediate transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local PMR on 6240MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer 3120MB using SCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distributed to 8 reduces on B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distiuted to 8 reduces on A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution of data to each Reduce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1minute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>exchanged.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of MR </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediatedata</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduces</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5r</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rreduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of concurent transfers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total intermediate data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqeuences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmr stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmrstderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 9360 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 6240 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1185,11 +1205,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="464698408"/>
-        <c:axId val="464689272"/>
+        <c:axId val="493649544"/>
+        <c:axId val="493655336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="464698408"/>
+        <c:axId val="493649544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,18 +1230,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464689272"/>
+        <c:crossAx val="493655336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464689272"/>
+        <c:axId val="493655336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,11 +1261,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464698408"/>
+        <c:crossAx val="493649544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,24 +1626,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="542508216"/>
-        <c:axId val="542505064"/>
+        <c:axId val="493688808"/>
+        <c:axId val="493691944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="542508216"/>
+        <c:axId val="493688808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542505064"/>
+        <c:crossAx val="493691944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542505064"/>
+        <c:axId val="493691944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,14 +1651,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542508216"/>
+        <c:crossAx val="493688808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1664,8 +1681,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127972690122595"/>
-          <c:y val="0.0509259259259259"/>
+          <c:x val="0.0899980065782916"/>
+          <c:y val="0.123041338582677"/>
           <c:w val="0.793585567626831"/>
           <c:h val="0.7261402741324"/>
         </c:manualLayout>
@@ -1877,11 +1894,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="542437128"/>
-        <c:axId val="542427368"/>
+        <c:axId val="493754808"/>
+        <c:axId val="493764376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="542437128"/>
+        <c:axId val="493754808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,14 +1922,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542427368"/>
+        <c:crossAx val="493764376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542427368"/>
+        <c:axId val="493764376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1954,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542437128"/>
+        <c:crossAx val="493754808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2147,31 +2164,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="542338328"/>
-        <c:axId val="542335256"/>
+        <c:axId val="493853320"/>
+        <c:axId val="493856376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="542338328"/>
+        <c:axId val="493853320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542335256"/>
+        <c:crossAx val="493856376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542335256"/>
+        <c:axId val="493856376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542338328"/>
+        <c:crossAx val="493853320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2260,15 +2277,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2285,6 +2302,56 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:ma="http://schemas.microsoft.com/office/mac/drawingml/2008/main" Requires="ma">
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="23114000"/>
+          <a:ext cx="5829300" cy="5651500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2655,7 +2722,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2665,45 +2732,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2832,33 +2899,33 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2998,13 +3065,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1"/>
     <row r="43" spans="1:14">
       <c r="J43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3042,24 +3109,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -3078,7 +3145,7 @@
         <v>2208.0443333333333</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -3098,7 +3165,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -3117,7 +3184,7 @@
         <v>2123.8213333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -3137,7 +3204,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="H48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -3157,7 +3224,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -3219,6 +3286,7 @@
       <c r="G81" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3234,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3246,12 +3314,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -3259,23 +3327,23 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3284,7 +3352,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3296,26 +3364,26 @@
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3340,7 +3408,7 @@
         <v>3120</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3362,14 +3430,14 @@
         <v>2681.3405951185346</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G10">
         <f>AVERAGE(E9:E11)</f>
         <v>2652.2825510560347</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>19029605</v>
@@ -3394,24 +3462,24 @@
         <v>2570.3256126185343</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G11">
         <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
         <v>81.442668757892889</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="K12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <f>(F9-F17)/F17*100</f>
@@ -3426,25 +3494,25 @@
     </row>
     <row r="16" spans="1:12" ht="65">
       <c r="A16" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3473,7 +3541,7 @@
         <v>19100</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3495,7 +3563,7 @@
         <v>2256.0450000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G18">
         <f>AVERAGE(E17:E19)</f>
@@ -3521,7 +3589,7 @@
         <v>2245.4900000000002</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
@@ -3530,21 +3598,21 @@
     </row>
     <row r="21" spans="1:14">
       <c r="J21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="I22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J22">
         <v>2652.2825510560347</v>
@@ -3565,7 +3633,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="I23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J23">
         <v>4528.8221494252866</v>
@@ -3586,7 +3654,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="I24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J24">
         <v>8375.575505747127</v>
@@ -3607,7 +3675,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="I25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J25">
         <v>7606.7479195402293</v>
@@ -3632,7 +3700,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3644,22 +3712,22 @@
     </row>
     <row r="28" spans="1:14" ht="65">
       <c r="A28" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3705,7 +3773,7 @@
         <v>4832.7978160919538</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G30">
         <f>AVERAGE(E29:E31)</f>
@@ -3732,7 +3800,7 @@
         <v>4712.2308160919538</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G31">
         <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
@@ -3745,37 +3813,55 @@
         <f>(F29-F41)/F41*100</f>
         <v>138.52030558906313</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="M34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="H37">
         <f>(G30-G42)/G42*100</f>
         <v>12.933088628712127</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="65">
+    <row r="40" spans="1:13" ht="65">
       <c r="A40" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <f>506.48/2</f>
         <v>253.24</v>
@@ -3802,8 +3888,19 @@
 18456</f>
         <v>36912</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="H41">
+        <v>18468</v>
+      </c>
+      <c r="I41">
+        <f>2.487/20</f>
+        <v>0.12435</v>
+      </c>
+      <c r="J41">
+        <f>2.12/18.46</f>
+        <v>0.11484290357529794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>260.43</v>
       </c>
@@ -3822,17 +3919,17 @@
         <v>4273.09</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G42">
         <f>AVERAGE(E41:E43)</f>
         <v>4239.8133333333335</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>264.32</v>
       </c>
@@ -3850,7 +3947,7 @@
         <v>4174.5200000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G43">
         <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
@@ -3861,25 +3958,25 @@
         <v>38059210</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:13">
       <c r="H45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="C46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="21" customFormat="1">
       <c r="E52" s="21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3887,22 +3984,22 @@
     </row>
     <row r="54" spans="1:12" ht="65">
       <c r="A54" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3947,7 +4044,7 @@
         <v>8410.8611724137936</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G56">
         <f>AVERAGE(E55:E57)</f>
@@ -3973,7 +4070,7 @@
         <v>8354.4101724137927</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G57">
         <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
@@ -3982,25 +4079,25 @@
     </row>
     <row r="59" spans="1:12" ht="65">
       <c r="A59" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4025,6 +4122,10 @@
       <c r="F60" s="17">
         <v>4425</v>
       </c>
+      <c r="G60">
+        <f>4.425/40</f>
+        <v>0.110625</v>
+      </c>
       <c r="I60">
         <f>38059210*2</f>
         <v>76118420</v>
@@ -4051,7 +4152,7 @@
         <v>7794.87</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G61">
         <f>AVERAGE(E60:E62)</f>
@@ -4078,7 +4179,7 @@
         <v>7905.7</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G62">
         <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
@@ -4091,29 +4192,34 @@
         <v>102.16949152542374</v>
       </c>
     </row>
+    <row r="65" spans="1:10">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="66" spans="1:10" s="21" customFormat="1">
       <c r="E66" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="65">
       <c r="A70" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4162,7 +4268,7 @@
         <v>7622.033586206896</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G72">
         <f>AVERAGE(E71:E73)</f>
@@ -4195,7 +4301,7 @@
         <v>7585.5825862068959</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G73">
         <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
@@ -4209,6 +4315,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4228,130 +4335,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>9862</v>
@@ -4368,7 +4475,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -4417,10 +4524,10 @@
         <v>9267</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4436,7 +4543,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -4475,58 +4582,58 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>9862</v>
@@ -4540,7 +4647,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -4554,7 +4661,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -4563,10 +4670,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -4580,7 +4687,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -4593,7 +4700,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -4601,6 +4708,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4616,46 +4724,46 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12" ht="65">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -4669,17 +4777,17 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -4692,10 +4800,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -4709,10 +4817,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -4722,7 +4830,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
@@ -4731,27 +4839,27 @@
     </row>
     <row r="10" spans="1:12" ht="52">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -4799,18 +4907,18 @@
         <v>4552</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4826,7 +4934,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -4864,8 +4972,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4876,49 +4986,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -4932,17 +5042,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -4951,10 +5061,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -4968,10 +5078,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -4981,7 +5091,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -4990,27 +5100,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>36454.269</v>
@@ -5044,7 +5154,7 @@
         <v>12.138496042809143</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5079,13 +5189,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5105,10 +5215,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>36454.269</v>
@@ -5157,7 +5267,14 @@
         <v>0.22942386831275721</v>
       </c>
     </row>
+    <row r="25" spans="1:8">
+      <c r="D25">
+        <f>36.54/40</f>
+        <v>0.91349999999999998</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5173,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5188,7 +5305,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -5200,25 +5317,25 @@
     </row>
     <row r="2" spans="1:16" ht="65">
       <c r="A2" s="19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H2" s="19"/>
       <c r="O2">
@@ -5282,7 +5399,7 @@
         <v>3014.5888529310346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H4">
         <f>AVERAGE(F3:F5)</f>
@@ -5318,7 +5435,7 @@
         <v>2882.3651829310347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
@@ -5354,25 +5471,25 @@
     </row>
     <row r="11" spans="1:16" ht="65">
       <c r="A11" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5401,13 +5518,13 @@
         <v>28396</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5429,14 +5546,14 @@
         <v>2363.4366666666665</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G13">
         <f>AVERAGE(E12:E14)</f>
         <v>2416.8599999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L13">
         <v>2984.3501395977014</v>
@@ -5467,14 +5584,14 @@
         <v>2433.6466666666665</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G14">
         <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
         <v>53.54597837390223</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L14">
         <v>2416.8599999999997</v>
@@ -5485,7 +5602,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="K17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L17">
         <v>102.66744486459044</v>
@@ -5499,7 +5616,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="K18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L18">
         <v>53.54597837390223</v>
@@ -5514,7 +5631,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -5526,25 +5643,25 @@
     </row>
     <row r="22" spans="1:14" ht="65">
       <c r="A22" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5596,7 +5713,7 @@
         <v>5459.8978160919542</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H24">
         <f>AVERAGE(F23:F25)</f>
@@ -5626,7 +5743,7 @@
         <v>5623.6078160919533</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H25">
         <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
@@ -5642,25 +5759,25 @@
     </row>
     <row r="29" spans="1:14" ht="65">
       <c r="A29" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5708,7 +5825,7 @@
         <v>4258.99</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <f>AVERAGE(E30:E32)</f>
@@ -5733,7 +5850,7 @@
         <v>4414.45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
@@ -5755,7 +5872,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -5767,25 +5884,25 @@
     </row>
     <row r="37" spans="1:12" ht="65">
       <c r="A37" s="19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5836,7 +5953,7 @@
         <v>9408.8711724137938</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F38:F40)</f>
@@ -5865,7 +5982,7 @@
         <v>9256.9201724137929</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H40">
         <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
@@ -5880,25 +5997,25 @@
     </row>
     <row r="44" spans="1:12" ht="65">
       <c r="A44" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5919,6 +6036,7 @@
       <c r="F47" s="20"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5934,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5953,45 +6071,45 @@
     </row>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>9862</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -6010,12 +6128,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -6036,7 +6154,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -6057,18 +6175,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>9267</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>3463</v>
@@ -6092,7 +6210,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>3568</v>
@@ -6112,7 +6230,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>3566</v>
@@ -6132,7 +6250,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6143,13 +6261,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C17">
         <v>9267</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>3531</v>
@@ -6169,7 +6287,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E18">
         <v>3904</v>
@@ -6188,9 +6306,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6211,45 +6329,45 @@
   <sheetData>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>18468</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -6268,12 +6386,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -6294,7 +6412,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -6315,18 +6433,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>18468</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -6351,7 +6469,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <f>SUM(F13:H13)</f>
@@ -6372,7 +6490,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -6393,7 +6511,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6404,13 +6522,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C17">
         <v>18468</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E17">
         <f>SUM(F17:H17)</f>
@@ -6431,7 +6549,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E18">
         <f>SUM(F18:H18)</f>
@@ -6452,10 +6570,11 @@
     </row>
     <row r="25" spans="2:10">
       <c r="H25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6474,6 +6593,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="-20" windowWidth="12860" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="36560" yWindow="-8160" windowWidth="35380" windowHeight="20760" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="216">
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr ofr pmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for hmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default replication factor - 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>File in GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-scp% of t-paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data size in GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer in GB in HMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer in GB in PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>%improvement of PMR(paramiko) over HMR(SCP)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>%improvement of PMR(SCP) over HMR(SCP)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts(scp)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India-Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel-&gt;India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distributed to 8 reduces on B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distiuted to 8 reduces on A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution of data to each Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1minute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>exchanged.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MR </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>20GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -213,7 +368,279 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Local-PMR on Hotel</t>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmr stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmrstderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 9360 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 6240 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000 lines which is  625000 sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle starts after map phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup-load data time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.2% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local PMR on 6240MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer 3120MB using SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -221,11 +648,187 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>of weissmann paper..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>related work</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>running bulk of applications on setup of machines.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediatedata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rreduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of concurent transfers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -233,485 +836,34 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr ofr pmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for hmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default replication factor - 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000 lines which is  625000 sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffle starts after map phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-  </si>
-  <si>
-    <t>Reduce</t>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup-load data time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>DMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>31.2% of intermediate transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local PMR on 6240MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer 3120MB using SCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distributed to 8 reduces on B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distiuted to 8 reduces on A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution of data to each Reduce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1minute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>exchanged.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of MR </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediatedata</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduces</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5r</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rreduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of concurent transfers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total intermediate data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>distributed-PMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -733,82 +885,6 @@
   </si>
   <si>
     <t>seqeuences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmr stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmrstderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 9360 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 6240 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -816,11 +892,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -917,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -953,6 +1032,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1176,7 @@
                   <c:v>1142.873333333333</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>2208.044333333333</c:v>
+                  <c:v>2929.238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,17 +1283,17 @@
                   <c:v>1137.135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2123.821333333333</c:v>
+                  <c:v>2437.460666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="493649544"/>
-        <c:axId val="493655336"/>
+        <c:axId val="706350520"/>
+        <c:axId val="603447912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493649544"/>
+        <c:axId val="706350520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,17 +1314,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493655336"/>
+        <c:crossAx val="603447912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493655336"/>
+        <c:axId val="603447912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,10 +1346,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493649544"/>
+        <c:crossAx val="706350520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,38 +1712,38 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="493688808"/>
-        <c:axId val="493691944"/>
+        <c:axId val="706178088"/>
+        <c:axId val="601941768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493688808"/>
+        <c:axId val="706178088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493691944"/>
+        <c:crossAx val="601941768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493691944"/>
+        <c:axId val="601941768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493688808"/>
+        <c:crossAx val="706178088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1695,7 +1781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 machines'!$J$21</c:f>
+              <c:f>'2 machines'!$Q$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,7 +1795,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'2 machines'!$L$22:$L$25</c:f>
+                <c:f>'2 machines'!$S$31:$S$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1730,7 +1816,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'2 machines'!$L$22:$L$25</c:f>
+                <c:f>'2 machines'!$S$31:$S$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1752,7 +1838,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2 machines'!$I$22:$I$25</c:f>
+              <c:f>'2 machines'!$P$31:$P$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1772,7 +1858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 machines'!$J$22:$J$25</c:f>
+              <c:f>'2 machines'!$Q$31:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1797,7 +1883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 machines'!$K$21</c:f>
+              <c:f>'2 machines'!$R$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1811,7 +1897,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'2 machines'!$M$22:$M$25</c:f>
+                <c:f>'2 machines'!$T$31:$T$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1832,7 +1918,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'2 machines'!$M$22:$M$25</c:f>
+                <c:f>'2 machines'!$T$31:$T$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1854,7 +1940,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2 machines'!$I$22:$I$25</c:f>
+              <c:f>'2 machines'!$P$31:$P$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1874,7 +1960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 machines'!$K$22:$K$25</c:f>
+              <c:f>'2 machines'!$R$31:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1894,11 +1980,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="493754808"/>
-        <c:axId val="493764376"/>
+        <c:axId val="602154360"/>
+        <c:axId val="706393752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493754808"/>
+        <c:axId val="602154360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,14 +2008,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493764376"/>
+        <c:crossAx val="706393752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493764376"/>
+        <c:axId val="706393752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +2040,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493754808"/>
+        <c:crossAx val="602154360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,6 +2069,232 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 machines'!$B$159:$B$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 machines'!$D$159:$D$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>230.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>699.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>939.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="605481624"/>
+        <c:axId val="711484984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605481624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="711484984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711484984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="605481624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 machines'!$B$150:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 machines'!$D$150:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>310.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>931.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1243.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="711724648"/>
+        <c:axId val="485764328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711724648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="485764328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485764328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="711724648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -2164,31 +2476,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="493853320"/>
-        <c:axId val="493856376"/>
+        <c:axId val="602304152"/>
+        <c:axId val="602208104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493853320"/>
+        <c:axId val="602304152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493856376"/>
+        <c:crossAx val="602208104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493856376"/>
+        <c:axId val="602208104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493853320"/>
+        <c:crossAx val="602304152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,15 +2554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2277,15 +2589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2304,54 +2616,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:ma="http://schemas.microsoft.com/office/mac/drawingml/2008/main" Requires="ma">
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-        </mc:Choice>
-        <mc:Fallback>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7073900" y="23114000"/>
-          <a:ext cx="5829300" cy="5651500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2387,6 +2709,61 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:ma="http://schemas.microsoft.com/office/mac/drawingml/2008/main" Requires="ma">
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="5943600"/>
+          <a:ext cx="6184900" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2714,15 +3091,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2732,45 +3109,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2899,33 +3276,33 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3065,13 +3442,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1"/>
     <row r="43" spans="1:14">
       <c r="J43" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3109,24 +3486,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -3140,12 +3517,11 @@
       <c r="E46">
         <v>1142.8733333333332</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" ref="F46" si="2">SUM(B46:E46)</f>
-        <v>2208.0443333333333</v>
+      <c r="F46" s="11">
+        <v>2929.2380000000003</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -3165,7 +3541,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -3179,12 +3555,11 @@
       <c r="E47" s="1">
         <v>1137.1349999999998</v>
       </c>
-      <c r="F47" s="5">
-        <f t="shared" ref="F47" si="3">SUM(B47:E47)</f>
-        <v>2123.8213333333333</v>
+      <c r="F47" s="11">
+        <v>2437.4606666666668</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -3204,7 +3579,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="H48" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -3224,7 +3599,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -3286,9 +3661,9 @@
       <c r="G81" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3300,59 +3675,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="F42" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3362,31 +3738,31 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="65">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="11">
         <v>1996.0322450000001</v>
       </c>
@@ -3408,10 +3784,10 @@
         <v>3120</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="11">
         <v>1960.294715</v>
       </c>
@@ -3430,20 +3806,20 @@
         <v>2681.3405951185346</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G10">
         <f>AVERAGE(E9:E11)</f>
         <v>2652.2825510560347</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="I10">
         <v>19029605</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>1875.3710450000001</v>
       </c>
@@ -3462,60 +3838,78 @@
         <v>2570.3256126185343</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G11">
         <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
         <v>81.442668757892889</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="K12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="E14" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <f>(F9-F17)/F17*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:22">
       <c r="I15">
         <f>(G10-G18)/G18*100</f>
         <v>16.359143122411279</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="65">
+    <row r="16" spans="1:22" ht="65">
       <c r="A16" s="22" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>152</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <f>263.31/2</f>
         <v>131.655</v>
@@ -3541,10 +3935,32 @@
         <v>19100</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <f>SUM(A17,B17,D17)+(1248/8.7)</f>
+        <v>2060.0932758620688</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17" s="24">
+        <f>3120/1024</f>
+        <v>3.046875</v>
+      </c>
+      <c r="T17" s="24">
+        <f>F17/1024</f>
+        <v>1.21875</v>
+      </c>
+      <c r="U17" s="24">
+        <v>16.359143122411279</v>
+      </c>
+      <c r="V17">
+        <f>(G10-J20)/J20*100</f>
+        <v>32.580433835651085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <f xml:space="preserve"> 304.59/2</f>
         <v>152.29499999999999</v>
@@ -3563,14 +3979,36 @@
         <v>2256.0450000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G18">
         <f>AVERAGE(E17:E19)</f>
         <v>2279.3933333333334</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="J18">
+        <f t="shared" ref="J18:J19" si="0">SUM(A18,B18,D18)+(1248/8.7)</f>
+        <v>1976.4932758620691</v>
+      </c>
+      <c r="R18">
+        <v>40</v>
+      </c>
+      <c r="S18" s="24">
+        <f>F29/1024</f>
+        <v>5.79296875</v>
+      </c>
+      <c r="T18" s="24">
+        <f>F41/1024</f>
+        <v>2.4287109375</v>
+      </c>
+      <c r="U18" s="24">
+        <v>6.8165457620450214</v>
+      </c>
+      <c r="V18">
+        <f>((G30-L45)/L45)*100</f>
+        <v>30.018305344977225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <f>268.72/2</f>
         <v>134.36000000000001</v>
@@ -3589,118 +4027,60 @@
         <v>2245.4900000000002</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G19">
         <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
         <v>56.423574207984203</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="I22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22">
-        <v>2652.2825510560347</v>
-      </c>
-      <c r="K22">
-        <v>2279.3933333333334</v>
-      </c>
-      <c r="L22">
-        <v>81.442668757892889</v>
-      </c>
-      <c r="M22">
-        <v>56.423574207984203</v>
-      </c>
-      <c r="N22">
-        <f>(J22-K22)/J22*100</f>
-        <v>14.059181499129171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="I23" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23">
-        <v>4528.8221494252866</v>
-      </c>
-      <c r="K23">
-        <v>4239.8133333333335</v>
-      </c>
-      <c r="L23">
-        <v>74.786486497903951</v>
-      </c>
-      <c r="M23">
-        <v>63.991437974886438</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N25" si="0">(J23-K23)/J23*100</f>
-        <v>6.3815448378477111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24">
-        <v>8375.575505747127</v>
-      </c>
-      <c r="K24">
-        <v>7884.0533333333333</v>
-      </c>
-      <c r="L24">
-        <v>32.578079537658802</v>
-      </c>
-      <c r="M24">
-        <v>91.174930715904665</v>
-      </c>
-      <c r="N24">
+      <c r="J19">
         <f t="shared" si="0"/>
-        <v>5.8685181940813802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="I25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25">
-        <v>7606.7479195402293</v>
-      </c>
-      <c r="K25">
-        <v>7884.0533333333333</v>
-      </c>
-      <c r="L25">
-        <v>21.413892083092751</v>
-      </c>
-      <c r="M25">
-        <v>91.174930715904665</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>-3.6455186464213076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>1964.9382758620691</v>
+      </c>
+      <c r="R19">
+        <v>80</v>
+      </c>
+      <c r="S19" s="24">
+        <f>F55/1024</f>
+        <v>8.736328125</v>
+      </c>
+      <c r="T19" s="24">
+        <f>F71/1024</f>
+        <v>5.8125</v>
+      </c>
+      <c r="U19" s="24">
+        <v>6.2343841629744645</v>
+      </c>
+      <c r="V19">
+        <f>((G56-L63)/L63)*100</f>
+        <v>25.694223221716751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(J17:J19)</f>
+        <v>2000.508275862069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21">
+        <f>1.96*(STDEV(J17:J19)/SQRT(3))</f>
+        <v>58.758157351082907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3710,27 +4090,27 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:14" ht="65">
+    <row r="28" spans="1:22" ht="65">
       <c r="A28" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <f>B41+D41+A41</f>
         <v>3428.83</v>
@@ -3753,7 +4133,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:22">
       <c r="A30">
         <f>B42+D42+A42</f>
         <v>3433.0899999999997</v>
@@ -3773,14 +4153,26 @@
         <v>4832.7978160919538</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G30">
         <f>AVERAGE(E29:E31)</f>
         <v>4788.1521494252875</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1">
+      <c r="Q30" t="s">
+        <v>209</v>
+      </c>
+      <c r="R30" t="s">
+        <v>210</v>
+      </c>
+      <c r="S30" t="s">
+        <v>89</v>
+      </c>
+      <c r="T30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="2" customFormat="1">
       <c r="A31">
         <f>B43+D43+A43</f>
         <v>3328.52</v>
@@ -3800,68 +4192,144 @@
         <v>4712.2308160919538</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G31">
         <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
         <v>74.786486497903951</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q31">
+        <v>2652.2825510560347</v>
+      </c>
+      <c r="R31">
+        <v>2279.3933333333334</v>
+      </c>
+      <c r="S31">
+        <v>81.442668757892889</v>
+      </c>
+      <c r="T31">
+        <v>56.423574207984203</v>
+      </c>
+      <c r="U31">
+        <f>(Q31-R31)/R31*100</f>
+        <v>16.359143122411279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="E32" s="11"/>
       <c r="H32">
         <f>(F29-F41)/F41*100</f>
         <v>138.52030558906313</v>
       </c>
       <c r="M32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32">
+        <v>4528.8221494252866</v>
+      </c>
+      <c r="R32">
+        <v>4239.8133333333335</v>
+      </c>
+      <c r="S32">
+        <v>74.786486497903951</v>
+      </c>
+      <c r="T32">
+        <v>63.991437974886438</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32:U34" si="2">(Q32-R32)/R32*100</f>
+        <v>6.8165457620450214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="M33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="P33" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q33">
+        <v>8375.575505747127</v>
+      </c>
+      <c r="R33">
+        <v>7884.0533333333333</v>
+      </c>
+      <c r="S33">
+        <v>32.578079537658802</v>
+      </c>
+      <c r="T33">
+        <v>91.174930715904665</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>6.2343841629744645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="M34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q34">
+        <v>7606.7479195402293</v>
+      </c>
+      <c r="R34">
+        <v>7884.0533333333333</v>
+      </c>
+      <c r="S34">
+        <v>21.413892083092751</v>
+      </c>
+      <c r="T34">
+        <v>91.174930715904665</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>-3.5172950012992974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="H37">
         <f>(G30-G42)/G42*100</f>
         <v>12.933088628712127</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="65">
+    <row r="40" spans="1:21" ht="65">
       <c r="A40" s="16" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41">
         <f>506.48/2</f>
         <v>253.24</v>
@@ -3899,8 +4367,11 @@
         <f>2.12/18.46</f>
         <v>0.11484290357529794</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="L41" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42">
         <v>260.43</v>
       </c>
@@ -3915,21 +4386,25 @@
         <v>404.53</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E43" si="2">SUM(A42:D42)</f>
+        <f t="shared" ref="E42:E43" si="3">SUM(A42:D42)</f>
         <v>4273.09</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G42">
         <f>AVERAGE(E41:E43)</f>
         <v>4239.8133333333335</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>215</v>
+      </c>
+      <c r="L42">
+        <f>SUM(B42,D42,A42)+(F41/8.7)</f>
+        <v>3718.9520689655169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43">
         <v>264.32</v>
       </c>
@@ -3943,11 +4418,11 @@
         <v>395.24</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4174.5200000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G43">
         <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
@@ -3957,26 +4432,50 @@
         <f>19029605*2</f>
         <v>38059210</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="L43">
+        <f>SUM(B43,D43,A43)+(F41/8.7)</f>
+        <v>3614.3820689655172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="L44">
+        <f>SUM(A41,B41,D41)+F41/8.7</f>
+        <v>3714.6920689655171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="H45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45">
+        <f>AVERAGE(L42:L44)</f>
+        <v>3682.6754022988503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="C46" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46">
+        <f>1.96*(STDEV(L42:L44)/SQRT(3))</f>
+        <v>66.970855199106225</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="21" customFormat="1">
       <c r="E52" s="21" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3984,22 +4483,22 @@
     </row>
     <row r="54" spans="1:12" ht="65">
       <c r="A54" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4033,18 +4532,18 @@
         <v>5863.4129999999996</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" ref="C56:C57" si="3">8946/43.5</f>
+        <f t="shared" ref="C56:C57" si="4">8946/43.5</f>
         <v>205.65517241379311</v>
       </c>
       <c r="D56">
         <v>1970.36</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" ref="E56:E57" si="4">MAX(A56:B56)+C56+D56</f>
+        <f t="shared" ref="E56:E57" si="5">MAX(A56:B56)+C56+D56</f>
         <v>8410.8611724137936</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G56">
         <f>AVERAGE(E55:E57)</f>
@@ -4059,18 +4558,18 @@
         <v>5811.2950000000001</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205.65517241379311</v>
       </c>
       <c r="D57" s="2">
         <v>1985.31</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8354.4101724137927</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G57">
         <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
@@ -4079,25 +4578,28 @@
     </row>
     <row r="59" spans="1:12" ht="65">
       <c r="A59" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>177</v>
+        <v>215</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4130,7 +4632,10 @@
         <f>38059210*2</f>
         <v>76118420</v>
       </c>
-      <c r="K60" s="17"/>
+      <c r="L60">
+        <f>SUM(B60,D60,A60)+(F60/8.7)</f>
+        <v>6717.2106896551722</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
@@ -4148,15 +4653,19 @@
         <v>764.53</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E62" si="5">SUM(A61:D61)</f>
+        <f t="shared" ref="E61:E62" si="6">SUM(A61:D61)</f>
         <v>7794.87</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G61">
         <f>AVERAGE(E60:E62)</f>
         <v>7884.0533333333333</v>
+      </c>
+      <c r="L61">
+        <f>SUM(B61,D61,A61)+(4425/8.7)</f>
+        <v>6623.490689655172</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4175,15 +4684,19 @@
         <v>815.24</v>
       </c>
       <c r="E62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7905.7</v>
       </c>
       <c r="F62" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G62">
         <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
         <v>91.174930715904665</v>
+      </c>
+      <c r="L62">
+        <f>SUM(B62,D62,A62)+(4425/8.7)</f>
+        <v>6674.3206896551719</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4191,35 +4704,51 @@
         <f>(F55-F60)/F60*100</f>
         <v>102.16949152542374</v>
       </c>
+      <c r="K63" t="s">
+        <v>189</v>
+      </c>
+      <c r="L63">
+        <f>AVERAGE(L60:L62)</f>
+        <v>6671.6740229885045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="K64" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64">
+        <f>1.96*(STDEV(L60:L62)/SQRT(3))</f>
+        <v>53.090478108094544</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="21" customFormat="1">
       <c r="E66" s="21" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="65">
       <c r="A70" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4257,18 +4786,18 @@
         <v>5863.4129999999996</v>
       </c>
       <c r="C72" s="11">
-        <f t="shared" ref="C72:C73" si="6">5952/43.5</f>
+        <f t="shared" ref="C72:C73" si="7">5952/43.5</f>
         <v>136.82758620689654</v>
       </c>
       <c r="D72">
         <v>1250.3599999999999</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" ref="E72:E73" si="7">MAX(A72:B72)+C72+D72</f>
+        <f t="shared" ref="E72:E73" si="8">MAX(A72:B72)+C72+D72</f>
         <v>7622.033586206896</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G72">
         <f>AVERAGE(E71:E73)</f>
@@ -4290,18 +4819,18 @@
         <v>5811.2950000000001</v>
       </c>
       <c r="C73" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.82758620689654</v>
       </c>
       <c r="D73" s="2">
         <v>1285.31</v>
       </c>
       <c r="E73" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7585.5825862068959</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G73">
         <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
@@ -4314,8 +4843,394 @@
         <v>1977.9599999999998</v>
       </c>
     </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122">
+        <v>5.4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15">
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" ht="26">
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <f>1024/8.7</f>
+        <v>117.70114942528737</v>
+      </c>
+      <c r="D150">
+        <v>310.19</v>
+      </c>
+      <c r="E150" s="25">
+        <f>(C150/D150)*100</f>
+        <v>37.944856193071139</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15">
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <f>(1024*B151)/8.7</f>
+        <v>235.40229885057474</v>
+      </c>
+      <c r="D151">
+        <v>621.33000000000004</v>
+      </c>
+      <c r="E151" s="25">
+        <f t="shared" ref="E151:E153" si="9">(C151/D151)*100</f>
+        <v>37.886839336676928</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15">
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ref="C152:C154" si="10">(1024*B152)/8.7</f>
+        <v>353.10344827586209</v>
+      </c>
+      <c r="D152">
+        <v>931.34</v>
+      </c>
+      <c r="E152" s="25">
+        <f t="shared" si="9"/>
+        <v>37.913484686136329</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15">
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="10"/>
+        <v>470.80459770114948</v>
+      </c>
+      <c r="D153">
+        <v>1243.23</v>
+      </c>
+      <c r="E153" s="25">
+        <f t="shared" si="9"/>
+        <v>37.869468859434654</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15">
+      <c r="B154">
+        <f>(1248/1024)</f>
+        <v>1.21875</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="10"/>
+        <v>143.44827586206898</v>
+      </c>
+      <c r="D154">
+        <f>310.19*B154</f>
+        <v>378.0440625</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15">
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" t="s">
+        <v>13</v>
+      </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" ht="26">
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>24</v>
+      </c>
+      <c r="K158">
+        <v>230.14</v>
+      </c>
+      <c r="L158">
+        <f>AVERAGE(J158:J160)</f>
+        <v>22</v>
+      </c>
+      <c r="M158">
+        <f>AVERAGE(K158)</f>
+        <v>230.14</v>
+      </c>
+      <c r="N158">
+        <f>(L158/M158)*100</f>
+        <v>9.5593986269227429</v>
+      </c>
+      <c r="O158">
+        <f>((M158-L158)/L158)*100</f>
+        <v>946.09090909090912</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>22</v>
+      </c>
+      <c r="D159">
+        <v>230.14</v>
+      </c>
+      <c r="E159" s="23">
+        <v>9.5593986269227429</v>
+      </c>
+      <c r="J159">
+        <v>22</v>
+      </c>
+      <c r="K159">
+        <v>231.81</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15">
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>43</v>
+      </c>
+      <c r="D160">
+        <v>469.61</v>
+      </c>
+      <c r="E160" s="23">
+        <v>9.0145723756592346</v>
+      </c>
+      <c r="J160">
+        <v>20</v>
+      </c>
+      <c r="K160">
+        <v>231.46</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15">
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>66</v>
+      </c>
+      <c r="D161">
+        <v>699.75</v>
+      </c>
+      <c r="E161" s="23">
+        <v>9.479576039061568</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15">
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>87</v>
+      </c>
+      <c r="D162">
+        <v>939.22</v>
+      </c>
+      <c r="E162" s="23">
+        <v>9.0145723756592346</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>42</v>
+      </c>
+      <c r="K162">
+        <v>469.61</v>
+      </c>
+      <c r="L162">
+        <f>AVERAGE(J162:J164)</f>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="M162">
+        <f>AVERAGE(K162)</f>
+        <v>469.61</v>
+      </c>
+      <c r="N162">
+        <f>(L162/M162)*100</f>
+        <v>9.0145723756592346</v>
+      </c>
+      <c r="O162">
+        <f>((M162-L162)/L162)*100</f>
+        <v>1009.3149606299212</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15">
+      <c r="B163">
+        <f>(1248/1024)/2</f>
+        <v>0.609375</v>
+      </c>
+      <c r="D163">
+        <f>235.74*B163-4.665</f>
+        <v>138.98906250000002</v>
+      </c>
+      <c r="J163">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>466.81</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15">
+      <c r="J164">
+        <v>43</v>
+      </c>
+      <c r="K164">
+        <v>467.81</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15">
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <v>66</v>
+      </c>
+      <c r="K166">
+        <f>K162+K158</f>
+        <v>699.75</v>
+      </c>
+      <c r="L166">
+        <f>AVERAGE(J166:J168)</f>
+        <v>66.333333333333329</v>
+      </c>
+      <c r="M166">
+        <f>AVERAGE(K166)</f>
+        <v>699.75</v>
+      </c>
+      <c r="N166">
+        <f>(L166/M166)*100</f>
+        <v>9.479576039061568</v>
+      </c>
+      <c r="O166">
+        <f>((M166-L166)/L166)*100</f>
+        <v>954.8994974874372</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15">
+      <c r="J167">
+        <v>67</v>
+      </c>
+      <c r="K167">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15">
+      <c r="J168">
+        <v>66</v>
+      </c>
+      <c r="K168">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15">
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <v>85</v>
+      </c>
+      <c r="K170">
+        <f>K162*2</f>
+        <v>939.22</v>
+      </c>
+      <c r="L170">
+        <f>AVERAGE(J170:J172)</f>
+        <v>84.666666666666671</v>
+      </c>
+      <c r="M170">
+        <f>AVERAGE(K170)</f>
+        <v>939.22</v>
+      </c>
+      <c r="N170">
+        <f>(L170/M170)*100</f>
+        <v>9.0145723756592346</v>
+      </c>
+      <c r="O170">
+        <f>((M170-L170)/L170)</f>
+        <v>10.093149606299212</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15">
+      <c r="J171">
+        <v>85</v>
+      </c>
+      <c r="K171">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15">
+      <c r="J172">
+        <v>84</v>
+      </c>
+      <c r="K172">
+        <v>941</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4336,129 +5251,129 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E27" sqref="E27:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <v>9862</v>
@@ -4475,7 +5390,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -4524,10 +5439,10 @@
         <v>9267</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4543,7 +5458,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -4582,58 +5497,58 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C41">
         <v>9862</v>
@@ -4647,7 +5562,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -4661,7 +5576,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -4670,10 +5585,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -4687,7 +5602,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -4700,7 +5615,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -4708,7 +5623,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4731,39 +5645,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="65">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -4777,17 +5691,17 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -4800,10 +5714,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -4817,10 +5731,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -4830,7 +5744,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="18" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
@@ -4839,27 +5753,27 @@
     </row>
     <row r="10" spans="1:12" ht="52">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -4907,18 +5821,18 @@
         <v>4552</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4934,7 +5848,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -4972,10 +5886,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4989,46 +5901,46 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -5042,17 +5954,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -5061,10 +5973,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -5078,10 +5990,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -5091,7 +6003,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -5100,27 +6012,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>36454.269</v>
@@ -5154,7 +6066,7 @@
         <v>12.138496042809143</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5189,13 +6101,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5215,10 +6127,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>36454.269</v>
@@ -5274,7 +6186,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5290,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5305,7 +6216,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -5317,25 +6228,25 @@
     </row>
     <row r="2" spans="1:16" ht="65">
       <c r="A2" s="19" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H2" s="19"/>
       <c r="O2">
@@ -5399,7 +6310,7 @@
         <v>3014.5888529310346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="H4">
         <f>AVERAGE(F3:F5)</f>
@@ -5435,7 +6346,7 @@
         <v>2882.3651829310347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="H5">
         <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
@@ -5471,25 +6382,25 @@
     </row>
     <row r="11" spans="1:16" ht="65">
       <c r="A11" s="22" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5518,13 +6429,13 @@
         <v>28396</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5546,14 +6457,14 @@
         <v>2363.4366666666665</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G13">
         <f>AVERAGE(E12:E14)</f>
         <v>2416.8599999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="L13">
         <v>2984.3501395977014</v>
@@ -5584,14 +6495,14 @@
         <v>2433.6466666666665</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G14">
         <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
         <v>53.54597837390223</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L14">
         <v>2416.8599999999997</v>
@@ -5602,7 +6513,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="K17" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="L17">
         <v>102.66744486459044</v>
@@ -5616,7 +6527,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="K18" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L18">
         <v>53.54597837390223</v>
@@ -5631,7 +6542,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -5643,25 +6554,25 @@
     </row>
     <row r="22" spans="1:14" ht="65">
       <c r="A22" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5713,7 +6624,7 @@
         <v>5459.8978160919542</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="H24">
         <f>AVERAGE(F23:F25)</f>
@@ -5743,7 +6654,7 @@
         <v>5623.6078160919533</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="H25">
         <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
@@ -5759,25 +6670,25 @@
     </row>
     <row r="29" spans="1:14" ht="65">
       <c r="A29" s="22" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5825,7 +6736,7 @@
         <v>4258.99</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G31">
         <f>AVERAGE(E30:E32)</f>
@@ -5850,7 +6761,7 @@
         <v>4414.45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="G32">
         <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
@@ -5872,7 +6783,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -5884,25 +6795,25 @@
     </row>
     <row r="37" spans="1:12" ht="65">
       <c r="A37" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5953,7 +6864,7 @@
         <v>9408.8711724137938</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F38:F40)</f>
@@ -5982,7 +6893,7 @@
         <v>9256.9201724137929</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="H40">
         <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
@@ -5997,25 +6908,25 @@
     </row>
     <row r="44" spans="1:12" ht="65">
       <c r="A44" s="22" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6023,6 +6934,12 @@
         <f>1200/3</f>
         <v>400</v>
       </c>
+      <c r="B45">
+        <v>5987.23</v>
+      </c>
+      <c r="C45">
+        <v>1775</v>
+      </c>
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:12">
@@ -6030,13 +6947,27 @@
         <f>1161/3</f>
         <v>387</v>
       </c>
+      <c r="B46">
+        <v>5865.54</v>
+      </c>
+      <c r="C46">
+        <v>1802</v>
+      </c>
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:12">
+      <c r="A47">
+        <v>398</v>
+      </c>
+      <c r="B47">
+        <v>5947.29</v>
+      </c>
+      <c r="C47">
+        <v>1794</v>
+      </c>
       <c r="F47" s="20"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6071,45 +7002,45 @@
     </row>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>9862</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -6128,12 +7059,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -6154,7 +7085,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -6175,18 +7106,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>9267</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <v>3463</v>
@@ -6210,7 +7141,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>3568</v>
@@ -6230,7 +7161,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>3566</v>
@@ -6250,7 +7181,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6261,13 +7192,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>9267</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>3531</v>
@@ -6287,7 +7218,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>3904</v>
@@ -6321,53 +7252,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A7:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>18468</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -6386,12 +7317,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -6412,7 +7343,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -6433,18 +7364,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>18468</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -6469,7 +7400,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <f>SUM(F13:H13)</f>
@@ -6490,7 +7421,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -6511,24 +7442,24 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="K16">
-        <f>SUM(C8+C12+C17)</f>
-        <v>55404</v>
+        <f>SUM(C8+C12+C17)/1024</f>
+        <v>54.10546875</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>18468</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <f>SUM(F17:H17)</f>
@@ -6549,7 +7480,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <f>SUM(F18:H18)</f>
@@ -6570,13 +7501,14 @@
     </row>
     <row r="25" spans="2:10">
       <c r="H25" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6587,19 +7519,264 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1"/>
+  <dimension ref="A9:L20"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="1:12" ht="39">
+      <c r="A9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>36454.269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:H10)</f>
+        <v>12874</v>
+      </c>
+      <c r="F10">
+        <v>4340</v>
+      </c>
+      <c r="G10">
+        <v>4267</v>
+      </c>
+      <c r="H10">
+        <v>4267</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11">
+        <f>SUM(F11:H11)</f>
+        <v>8844</v>
+      </c>
+      <c r="F11">
+        <v>4410</v>
+      </c>
+      <c r="G11">
+        <v>2217</v>
+      </c>
+      <c r="H11">
+        <v>2217</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12">
+        <f>SUM(F12:H12)</f>
+        <v>7135</v>
+      </c>
+      <c r="F12">
+        <v>2615</v>
+      </c>
+      <c r="G12">
+        <v>2260</v>
+      </c>
+      <c r="H12">
+        <v>2260</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="L13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14">
+        <v>36454.269</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <f>SUM(F14:H14)</f>
+        <v>6611</v>
+      </c>
+      <c r="F14">
+        <v>2173</v>
+      </c>
+      <c r="G14">
+        <v>2265</v>
+      </c>
+      <c r="H14">
+        <v>2173</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>MAX(F10:H20)</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15">
+        <f>SUM(F15:H15)</f>
+        <v>6564</v>
+      </c>
+      <c r="F15">
+        <v>2143</v>
+      </c>
+      <c r="G15">
+        <v>2278</v>
+      </c>
+      <c r="H15">
+        <v>2143</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16">
+        <f>SUM(F16:H16)</f>
+        <v>6373</v>
+      </c>
+      <c r="F16">
+        <v>2134</v>
+      </c>
+      <c r="G16">
+        <v>2105</v>
+      </c>
+      <c r="H16">
+        <v>2134</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="K18">
+        <f>SUM(C10+C14+C19)/1024</f>
+        <v>106.7996162109375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <v>36454.269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19">
+        <f>SUM(F19:H19)</f>
+        <v>6565</v>
+      </c>
+      <c r="F19">
+        <v>2123</v>
+      </c>
+      <c r="G19">
+        <v>2319</v>
+      </c>
+      <c r="H19">
+        <v>2123</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20">
+        <f>SUM(F20:H20)</f>
+        <v>6974</v>
+      </c>
+      <c r="F20">
+        <v>2346</v>
+      </c>
+      <c r="G20">
+        <v>2282</v>
+      </c>
+      <c r="H20">
+        <v>2346</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36560" yWindow="-8160" windowWidth="35380" windowHeight="20760" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="29060" yWindow="-7360" windowWidth="26740" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="224">
+  <si>
+    <t>tts(scp)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India-Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel-&gt;India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop-Setup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop-Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop-Shuffle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop-Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distributed to 8 reduces on B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 has to be distiuted to 8 reduces on A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution of data to each Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1minute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>exchanged.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MR </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.48% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate data in case of PMR is 36454.269MB  for 40GB whichis 91.4%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>98% intermediate data generated.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22% of intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrent transfers - 4*1+4*1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*2+3*2+2*2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 data units are created</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmr stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmrstderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 9360 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on 6240 MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000 lines which is  625000 sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle starts after map phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup-load data time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.2% of intermediate transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-setup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Shuffle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate data in case of PMR is 18468MB for 20GB whichis 92%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Local-PMR on Hotel</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -125,15 +400,175 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>tts(scp)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India-Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel-&gt;India</t>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>of weissmann paper..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>related work</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>running bulk of applications on setup of machines.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediatedata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rreduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of concurent transfers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5952*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -141,46 +576,107 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4.5 has to be distributed to 8 reduces on B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 has to be distiuted to 8 reduces on A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution of data to each Reduce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1minute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>exchanged.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of MR </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR for  jon's DMR and distibuted-PMR.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 29 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred within India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time taken to distribute data to remote machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Data in MB transferred to </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> effective data transfer in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote data distribution= 7mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*3) MB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -188,6 +684,86 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>reduce-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>40GB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -196,175 +772,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12.48% of intermediate transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediate data in case of PMR is 18468MB for 20GB whichis 92%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediate data in case of PMR is 36454.269MB  for 40GB whichis 91.4%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>98% intermediate data generated.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22% of intermediate data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>concurrent transfers - 4*1+4*1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*2+3*2+2*2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 data units are created</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5952*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 29 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred within India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time taken to distribute data to remote machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote Data in MB transferred to </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> effective data transfer in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remote data distribution= 7mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on India</t>
+    <t>distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*2) MB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -372,7 +792,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40GB</t>
+    <t>sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqeuences</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -380,206 +804,94 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmr stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmrstderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 9360 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on 6240 MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000 lines which is  625000 sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffle starts after map phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-  </si>
-  <si>
-    <t>Reduce</t>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Local-PMR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Setup-load data time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31.2% of intermediate transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual data transfer time is 610 seconcds.. But local data transfer is considered as negligible..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Local PMR on 6240MB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -605,286 +917,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>of weissmann paper..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>related work</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>running bulk of applications on setup of machines.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediatedata</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduces</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5r</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rreduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of concurent transfers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total intermediate data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqeuences</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -892,14 +924,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -996,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1032,11 +1061,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,11 +1321,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="706350520"/>
-        <c:axId val="603447912"/>
+        <c:axId val="525300904"/>
+        <c:axId val="525286808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="706350520"/>
+        <c:axId val="525300904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,18 +1346,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603447912"/>
+        <c:crossAx val="525286808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603447912"/>
+        <c:axId val="525286808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,11 +1377,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706350520"/>
+        <c:crossAx val="525300904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,38 +1742,37 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="706178088"/>
-        <c:axId val="601941768"/>
+        <c:axId val="523400344"/>
+        <c:axId val="523397192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="706178088"/>
+        <c:axId val="523400344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601941768"/>
+        <c:crossAx val="523397192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601941768"/>
+        <c:axId val="523397192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706178088"/>
+        <c:crossAx val="523400344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1756,6 +1785,672 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.148849740556624"/>
+          <c:y val="0.0488888888888889"/>
+          <c:w val="0.801319169781197"/>
+          <c:h val="0.736551881014873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$K$18:$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop-Setup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$K$20:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>36.70633333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267.8733333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>684.2379999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$L$18:$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop-Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$L$20:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>81.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>596.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1541.666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$M$18:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop-Shuffle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$M$20:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>14.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>212.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$N$18:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop-Reduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$N$20:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>31.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$O$18:$O$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PMR-setup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$O$20:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>13.22533333333333</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>43.63833333333332</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>64.72000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>154.9813333333333</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>473.4563333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$P$18:$P$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PMR-Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$P$20:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>70.464</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>140.7003333333333</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>275.648</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>541.9666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>1087.486666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$Q$18:$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PMR-Shuffle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$Q$20:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.123666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.294</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.202666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc hadoop-pmr'!$R$18:$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PMR-Reduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$J$20:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wc hadoop-pmr'!$R$20:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>55.154</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>55.154</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>107.6173333333333</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>214.5263333333333</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>438.9843333333333</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>873.0476666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="525241672"/>
+        <c:axId val="525237704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="525241672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Input data size (in GB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525237704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525237704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525241672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.147547260706336"/>
+          <c:y val="0.0540815398075241"/>
+          <c:w val="0.470489581659435"/>
+          <c:h val="0.404391251093613"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1980,11 +2675,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="602154360"/>
-        <c:axId val="706393752"/>
+        <c:axId val="523325416"/>
+        <c:axId val="523314056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="602154360"/>
+        <c:axId val="523325416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,14 +2703,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706393752"/>
+        <c:crossAx val="523314056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706393752"/>
+        <c:axId val="523314056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2735,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602154360"/>
+        <c:crossAx val="523325416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,119 +2752,6 @@
           <c:h val="0.173874167171411"/>
         </c:manualLayout>
       </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2 machines'!$B$159:$B$162</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2 machines'!$D$159:$D$162</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>230.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>469.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>699.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>939.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="605481624"/>
-        <c:axId val="711484984"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="605481624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711484984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="711484984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605481624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2204,13 +2786,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2 machines'!$B$150:$B$153</c:f>
+              <c:f>'2 machines'!$B$159:$B$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2231,43 +2812,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2 machines'!$D$150:$D$153</c:f>
+              <c:f>'2 machines'!$D$159:$D$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>310.19</c:v>
+                  <c:v>230.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>621.33</c:v>
+                  <c:v>469.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>931.34</c:v>
+                  <c:v>699.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1243.23</c:v>
+                  <c:v>939.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="711724648"/>
-        <c:axId val="485764328"/>
+        <c:axId val="524419464"/>
+        <c:axId val="524416440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="711724648"/>
+        <c:axId val="524419464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485764328"/>
+        <c:crossAx val="524416440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485764328"/>
+        <c:axId val="524416440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2856,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711724648"/>
+        <c:crossAx val="524419464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2295,6 +2875,117 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 machines'!$B$150:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 machines'!$D$150:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>310.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>931.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1243.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="524373688"/>
+        <c:axId val="524370712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524373688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="524370712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524370712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="524373688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -2476,31 +3167,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="602304152"/>
-        <c:axId val="602208104"/>
+        <c:axId val="457372408"/>
+        <c:axId val="457375464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="602304152"/>
+        <c:axId val="457372408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602208104"/>
+        <c:crossAx val="457375464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="602208104"/>
+        <c:axId val="457375464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602304152"/>
+        <c:crossAx val="457372408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,6 +3270,136 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46854</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:ma="http://schemas.microsoft.com/office/mac/drawingml/2008/main" Requires="ma">
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9571854" y="15684500"/>
+          <a:ext cx="6138045" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46854</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8754</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:ma="http://schemas.microsoft.com/office/mac/drawingml/2008/main" Requires="ma">
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9571854" y="15684500"/>
+          <a:ext cx="6629400" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2718,20 +3539,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2756,8 +3577,8 @@
       </mc:AlternateContent>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="5943600"/>
-          <a:ext cx="6184900" cy="1676400"/>
+          <a:off x="5715000" y="6604000"/>
+          <a:ext cx="6350000" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3089,17 +3910,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:N81"/>
+  <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3109,45 +3930,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3222,7 +4043,7 @@
         <v>3.6905394768847009</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>8</v>
       </c>
@@ -3246,7 +4067,7 @@
         <v>11.112585673013266</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3269,43 +4090,134 @@
       <c r="G18" s="5">
         <v>69.652011250000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1">
+    </row>
+    <row r="21" spans="1:18">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>36.706333333333333</v>
+      </c>
+      <c r="L21" s="11">
+        <v>81.666666666666671</v>
+      </c>
+      <c r="M21" s="11">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="N21" s="11">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="78">
+        <v>79</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="11"/>
+      <c r="L22"/>
+      <c r="M22" s="11"/>
+      <c r="N22"/>
+      <c r="O22" s="11">
+        <v>13.225333333333333</v>
+      </c>
+      <c r="P22" s="11">
+        <v>70.463999999999999</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0.12366666666666666</v>
+      </c>
+      <c r="R22" s="11">
+        <v>55.153999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="11">
+        <v>70.242999999999995</v>
+      </c>
+      <c r="L24" s="11">
+        <v>156.5</v>
+      </c>
+      <c r="M24" s="11">
+        <v>55</v>
+      </c>
+      <c r="N24" s="11">
+        <v>27</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24" s="11"/>
+      <c r="Q24"/>
+      <c r="R24" s="11">
+        <v>55.153999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3331,8 +4243,20 @@
       <c r="H25" s="5">
         <v>3.9537597419720347</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="O25" s="11">
+        <v>43.638333333333328</v>
+      </c>
+      <c r="P25" s="11">
+        <v>140.70033333333333</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="R25" s="11">
+        <v>107.61733333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3359,7 +4283,7 @@
         <v>9.332887156</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3385,8 +4309,23 @@
       <c r="H27" s="5">
         <v>29.365570828382978</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" s="11">
+        <v>140.55500000000001</v>
+      </c>
+      <c r="L27" s="11">
+        <v>304</v>
+      </c>
+      <c r="M27" s="11">
+        <v>115.5</v>
+      </c>
+      <c r="N27" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3412,8 +4351,20 @@
       <c r="H28" s="5">
         <v>45.910195475769797</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="O28" s="11">
+        <v>64.720000000000013</v>
+      </c>
+      <c r="P28" s="11">
+        <v>275.64799999999997</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="R28" s="11">
+        <v>214.52633333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>16</v>
       </c>
@@ -3440,18 +4391,93 @@
         <v>22.845496900000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="30" spans="1:18">
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" s="11">
+        <v>267.87333333333333</v>
+      </c>
+      <c r="L30" s="11">
+        <v>596.33333333333337</v>
+      </c>
+      <c r="M30" s="11">
+        <v>212.33333333333334</v>
+      </c>
+      <c r="N30" s="11">
+        <v>66.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="11">
+        <v>154.98133333333334</v>
+      </c>
+      <c r="P31" s="11">
+        <v>541.96666666666658</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>1.2026666666666666</v>
+      </c>
+      <c r="R31" s="11">
+        <v>438.98433333333332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1"/>
-    <row r="43" spans="1:14">
+        <v>58</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+      <c r="K33" s="11">
+        <v>684.23799999999994</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="M33" s="11">
+        <v>560.33333333333337</v>
+      </c>
+      <c r="N33" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="11">
+        <v>473.4563333333333</v>
+      </c>
+      <c r="P34" s="11">
+        <v>1087.4866666666667</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>3.47</v>
+      </c>
+      <c r="R34" s="11">
+        <v>873.04766666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="2" customFormat="1">
+      <c r="L37" s="26">
+        <f>SUM(K33:N33)</f>
+        <v>2929.2380000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="J43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3467,7 +4493,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:18">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>1</v>
@@ -3486,24 +4512,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -3521,7 +4547,7 @@
         <v>2929.2380000000003</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -3539,9 +4565,9 @@
         <v>2929.2380000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:18">
       <c r="A47" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -3559,7 +4585,7 @@
         <v>2437.4606666666668</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -3577,9 +4603,9 @@
         <v>2437.4606666666668</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:18">
       <c r="H48" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -3599,7 +4625,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -3661,6 +4687,7 @@
       <c r="G81" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3677,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView topLeftCell="F42" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3690,12 +4717,12 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -3703,23 +4730,23 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3728,7 +4755,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3740,26 +4767,26 @@
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3784,7 +4811,7 @@
         <v>3120</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3806,14 +4833,14 @@
         <v>2681.3405951185346</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <f>AVERAGE(E9:E11)</f>
         <v>2652.2825510560347</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>19029605</v>
@@ -3838,24 +4865,24 @@
         <v>2570.3256126185343</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G11">
         <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
         <v>81.442668757892889</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="K12" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <f>(F9-F17)/F17*100</f>
@@ -3865,54 +4892,53 @@
     <row r="15" spans="1:22">
       <c r="I15">
         <f>(G10-G18)/G18*100</f>
-        <v>16.359143122411279</v>
+        <v>10.423280970223924</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="65">
       <c r="A16" s="22" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <f>263.31/2</f>
-        <v>131.655</v>
+        <v>263.31</v>
       </c>
       <c r="B17">
         <v>1542.21</v>
@@ -3926,7 +4952,7 @@
       </c>
       <c r="E17">
         <f>SUM(A17:D17)</f>
-        <v>2336.645</v>
+        <v>2468.3000000000002</v>
       </c>
       <c r="F17" s="17">
         <v>1248</v>
@@ -3935,11 +4961,11 @@
         <v>19100</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J17">
         <f>SUM(A17,B17,D17)+(1248/8.7)</f>
-        <v>2060.0932758620688</v>
+        <v>2191.748275862069</v>
       </c>
       <c r="R17">
         <v>20</v>
@@ -3957,13 +4983,12 @@
       </c>
       <c r="V17">
         <f>(G10-J20)/J20*100</f>
-        <v>32.580433835651085</v>
+        <v>24.928626168035727</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18">
-        <f xml:space="preserve"> 304.59/2</f>
-        <v>152.29499999999999</v>
+        <v>254.59</v>
       </c>
       <c r="B18">
         <v>1441.11</v>
@@ -3976,18 +5001,24 @@
       </c>
       <c r="E18">
         <f>SUM(A18:D18)</f>
-        <v>2256.0450000000001</v>
+        <v>2358.3399999999997</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G18">
         <f>AVERAGE(E17:E19)</f>
-        <v>2279.3933333333334</v>
+        <v>2401.9233333333332</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:J19" si="0">SUM(A18,B18,D18)+(1248/8.7)</f>
-        <v>1976.4932758620691</v>
+        <v>2078.7882758620685</v>
+      </c>
+      <c r="L18">
+        <v>9144</v>
+      </c>
+      <c r="M18">
+        <v>242.78</v>
       </c>
       <c r="R18">
         <v>40</v>
@@ -4010,8 +5041,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <f>268.72/2</f>
-        <v>134.36000000000001</v>
+        <v>268</v>
       </c>
       <c r="B19">
         <v>1446.79</v>
@@ -4024,18 +5054,25 @@
       </c>
       <c r="E19">
         <f>SUM(A19:D19)</f>
-        <v>2245.4900000000002</v>
+        <v>2379.13</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G19">
         <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
-        <v>56.423574207984203</v>
+        <v>66.104153343773305</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1964.9382758620691</v>
+        <v>2098.5782758620689</v>
+      </c>
+      <c r="L19">
+        <v>18468</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(D41:D43)</f>
+        <v>405.23</v>
       </c>
       <c r="R19">
         <v>80</v>
@@ -4058,20 +5095,28 @@
     </row>
     <row r="20" spans="1:22">
       <c r="I20" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="J20">
         <f>AVERAGE(J17:J19)</f>
-        <v>2000.508275862069</v>
+        <v>2123.0382758620685</v>
+      </c>
+      <c r="L20">
+        <f>36454.269</f>
+        <v>36454.269</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(D60:D62)</f>
+        <v>791.89666666666653</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="I21" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="J21">
         <f>1.96*(STDEV(J17:J19)/SQRT(3))</f>
-        <v>58.758157351082907</v>
+        <v>68.260444569707076</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -4080,7 +5125,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -4092,22 +5137,22 @@
     </row>
     <row r="28" spans="1:22" ht="65">
       <c r="A28" s="19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -4153,23 +5198,23 @@
         <v>4832.7978160919538</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G30">
         <f>AVERAGE(E29:E31)</f>
         <v>4788.1521494252875</v>
       </c>
       <c r="Q30" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="R30" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="S30" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="2" customFormat="1">
@@ -4192,14 +5237,14 @@
         <v>4712.2308160919538</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G31">
         <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
         <v>74.786486497903951</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2652.2825510560347</v>
@@ -4225,10 +5270,10 @@
         <v>138.52030558906313</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>4528.8221494252866</v>
@@ -4249,10 +5294,10 @@
     </row>
     <row r="33" spans="1:21">
       <c r="M33" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>8375.575505747127</v>
@@ -4273,10 +5318,10 @@
     </row>
     <row r="34" spans="1:21">
       <c r="M34" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>7606.7479195402293</v>
@@ -4297,7 +5342,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -4308,25 +5353,25 @@
     </row>
     <row r="40" spans="1:21" ht="65">
       <c r="A40" s="16" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -4368,7 +5413,7 @@
         <v>0.11484290357529794</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -4390,14 +5435,14 @@
         <v>4273.09</v>
       </c>
       <c r="F42" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G42">
         <f>AVERAGE(E41:E43)</f>
         <v>4239.8133333333335</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L42">
         <f>SUM(B42,D42,A42)+(F41/8.7)</f>
@@ -4422,7 +5467,7 @@
         <v>4174.5200000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G43">
         <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
@@ -4445,10 +5490,10 @@
     </row>
     <row r="45" spans="1:21">
       <c r="H45" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L45">
         <f>AVERAGE(L42:L44)</f>
@@ -4457,16 +5502,16 @@
     </row>
     <row r="46" spans="1:21">
       <c r="C46" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L46">
         <f>1.96*(STDEV(L42:L44)/SQRT(3))</f>
@@ -4475,7 +5520,7 @@
     </row>
     <row r="52" spans="1:12" s="21" customFormat="1">
       <c r="E52" s="21" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4483,22 +5528,22 @@
     </row>
     <row r="54" spans="1:12" ht="65">
       <c r="A54" s="19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4543,7 +5588,7 @@
         <v>8410.8611724137936</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G56">
         <f>AVERAGE(E55:E57)</f>
@@ -4569,7 +5614,7 @@
         <v>8354.4101724137927</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G57">
         <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
@@ -4578,28 +5623,28 @@
     </row>
     <row r="59" spans="1:12" ht="65">
       <c r="A59" s="16" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4657,7 +5702,7 @@
         <v>7794.87</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G61">
         <f>AVERAGE(E60:E62)</f>
@@ -4688,7 +5733,7 @@
         <v>7905.7</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G62">
         <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
@@ -4705,7 +5750,7 @@
         <v>102.16949152542374</v>
       </c>
       <c r="K63" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L63">
         <f>AVERAGE(L60:L62)</f>
@@ -4714,7 +5759,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="K64" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L64">
         <f>1.96*(STDEV(L60:L62)/SQRT(3))</f>
@@ -4723,32 +5768,32 @@
     </row>
     <row r="65" spans="1:10">
       <c r="B65" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="21" customFormat="1">
       <c r="E66" s="21" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="65">
       <c r="A70" s="19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4797,7 +5842,7 @@
         <v>7622.033586206896</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G72">
         <f>AVERAGE(E71:E73)</f>
@@ -4830,7 +5875,7 @@
         <v>7585.5825862068959</v>
       </c>
       <c r="F73" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G73">
         <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
@@ -4848,13 +5893,13 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4872,26 +5917,26 @@
         <v>5.4</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="2:15">
       <c r="C148" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="2:15" ht="26">
       <c r="B149" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="2:15">
@@ -4974,30 +6019,30 @@
     </row>
     <row r="157" spans="2:15">
       <c r="C157" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J157" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="K157" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="2:15" ht="26">
       <c r="B158" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -5231,6 +6276,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5248,132 +6294,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="39">
       <c r="A20" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>9862</v>
@@ -5390,13 +6436,13 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="D22">
         <v>1139</v>
       </c>
@@ -5411,7 +6457,7 @@
         <v>94.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="D23">
         <v>1162</v>
       </c>
@@ -5422,7 +6468,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="D24">
         <v>1189</v>
       </c>
@@ -5433,19 +6479,19 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="G26">
         <f>SUM(E21:E24,E27:E30)</f>
         <v>9267</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="D27">
         <v>1114</v>
       </c>
@@ -5456,9 +6502,9 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -5472,8 +6518,12 @@
       <c r="F28">
         <v>2427</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <f>C21+C28</f>
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="D29">
         <v>1144</v>
       </c>
@@ -5484,7 +6534,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="D30">
         <v>1264</v>
       </c>
@@ -5495,60 +6545,60 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="D32" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>9862</v>
@@ -5562,7 +6612,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -5576,7 +6626,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -5585,10 +6635,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -5602,7 +6652,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -5615,7 +6665,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -5645,39 +6695,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="65">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -5691,17 +6741,17 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -5714,10 +6764,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -5731,10 +6781,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -5744,7 +6794,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="18" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
@@ -5753,27 +6803,27 @@
     </row>
     <row r="10" spans="1:12" ht="52">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -5821,18 +6871,18 @@
         <v>4552</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -5848,7 +6898,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -5901,46 +6951,46 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -5954,17 +7004,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -5973,10 +7023,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -5990,10 +7040,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -6003,7 +7053,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -6012,27 +7062,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11">
         <v>36454.269</v>
@@ -6066,7 +7116,7 @@
         <v>12.138496042809143</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6101,13 +7151,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6127,10 +7177,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C18">
         <v>36454.269</v>
@@ -6188,7 +7238,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6201,8 +7250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6216,7 +7265,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -6228,25 +7277,25 @@
     </row>
     <row r="2" spans="1:16" ht="65">
       <c r="A2" s="19" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H2" s="19"/>
       <c r="O2">
@@ -6310,7 +7359,7 @@
         <v>3014.5888529310346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H4">
         <f>AVERAGE(F3:F5)</f>
@@ -6346,7 +7395,7 @@
         <v>2882.3651829310347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H5">
         <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
@@ -6380,27 +7429,43 @@
         <v>2998.2280000000005</v>
       </c>
     </row>
+    <row r="8" spans="1:16">
+      <c r="O8">
+        <f>2*9144</f>
+        <v>18288</v>
+      </c>
+      <c r="P8">
+        <f>0.115*O8-88.142</f>
+        <v>2014.9779999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="O9">
+        <f>3*8946</f>
+        <v>26838</v>
+      </c>
+    </row>
     <row r="11" spans="1:16" ht="65">
       <c r="A11" s="22" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6416,11 +7481,11 @@
         <v>430</v>
       </c>
       <c r="D12">
-        <v>332.85</v>
+        <v>242.78</v>
       </c>
       <c r="E12">
         <f>SUM(A12:D12)</f>
-        <v>2453.4966666666664</v>
+        <v>2363.4266666666667</v>
       </c>
       <c r="F12" s="17">
         <v>1264</v>
@@ -6429,13 +7494,13 @@
         <v>28396</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6450,21 +7515,21 @@
         <v>424</v>
       </c>
       <c r="D13">
-        <v>339.45</v>
+        <v>239.64</v>
       </c>
       <c r="E13">
         <f>SUM(A13:D13)</f>
-        <v>2363.4366666666665</v>
+        <v>2263.6266666666666</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G13">
         <f>AVERAGE(E12:E14)</f>
-        <v>2416.8599999999997</v>
+        <v>2318.4266666666667</v>
       </c>
       <c r="K13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="L13">
         <v>2984.3501395977014</v>
@@ -6488,21 +7553,21 @@
         <v>425</v>
       </c>
       <c r="D14">
-        <v>345.76</v>
+        <v>240.34</v>
       </c>
       <c r="E14">
         <f>SUM(A14:D14)</f>
-        <v>2433.6466666666665</v>
+        <v>2328.2266666666669</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G14">
         <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
-        <v>53.54597837390223</v>
+        <v>57.278072779497222</v>
       </c>
       <c r="K14" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="L14">
         <v>2416.8599999999997</v>
@@ -6513,7 +7578,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="K17" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="L17">
         <v>102.66744486459044</v>
@@ -6527,7 +7592,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="K18" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="L18">
         <v>53.54597837390223</v>
@@ -6542,7 +7607,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -6554,31 +7619,31 @@
     </row>
     <row r="22" spans="1:14" ht="65">
       <c r="A22" s="19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
         <f>B30+D30+A30</f>
-        <v>3437.1733333333336</v>
+        <v>3634.4633333333336</v>
       </c>
       <c r="B23">
         <v>2914.9259999999999</v>
@@ -6595,7 +7660,7 @@
       </c>
       <c r="F23" s="11">
         <f>MAX(A23:B23)+C23+E23</f>
-        <v>5530.8511494252871</v>
+        <v>5728.1411494252879</v>
       </c>
       <c r="G23" s="17">
         <v>5932</v>
@@ -6604,7 +7669,7 @@
     <row r="24" spans="1:14">
       <c r="A24">
         <f>B31+D31+A31</f>
-        <v>3358.99</v>
+        <v>3608.99</v>
       </c>
       <c r="B24">
         <v>2837.6559999999999</v>
@@ -6621,20 +7686,20 @@
       </c>
       <c r="F24" s="11">
         <f>MAX(A24:B24)+C24+E24</f>
-        <v>5459.8978160919542</v>
+        <v>5709.8978160919542</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H24">
         <f>AVERAGE(F23:F25)</f>
-        <v>5538.1189272030651</v>
+        <v>5763.2155938697324</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
         <f>B32+D32+A32</f>
-        <v>3508.45</v>
+        <v>3736.45</v>
       </c>
       <c r="B25">
         <v>2869.0210000000002</v>
@@ -6651,14 +7716,14 @@
       </c>
       <c r="F25" s="11">
         <f>MAX(A25:B25)+C25+E25</f>
-        <v>5623.6078160919533</v>
+        <v>5851.6078160919533</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H25">
         <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
-        <v>92.901081114213085</v>
+        <v>87.237201633409768</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -6670,25 +7735,25 @@
     </row>
     <row r="29" spans="1:14" ht="65">
       <c r="A29" s="22" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6704,11 +7769,11 @@
         <v>853</v>
       </c>
       <c r="D30">
-        <v>415.92</v>
+        <v>613.21</v>
       </c>
       <c r="E30">
         <f>SUM(A30:D30)</f>
-        <v>4290.1733333333332</v>
+        <v>4487.4633333333331</v>
       </c>
       <c r="F30" s="17">
         <v>2615</v>
@@ -6729,18 +7794,18 @@
         <v>900</v>
       </c>
       <c r="D31">
-        <v>404.53</v>
+        <v>654.53</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:E32" si="1">SUM(A31:D31)</f>
-        <v>4258.99</v>
+        <v>4508.99</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G31">
         <f>AVERAGE(E30:E32)</f>
-        <v>4321.2044444444446</v>
+        <v>4546.3011111111109</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6754,18 +7819,18 @@
         <v>906</v>
       </c>
       <c r="D32">
-        <v>395.24</v>
+        <v>623.24</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>4414.45</v>
+        <v>4642.45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G32">
         <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
-        <v>93.068361548559992</v>
+        <v>95.009848289165362</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -6783,7 +7848,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -6795,25 +7860,25 @@
     </row>
     <row r="37" spans="1:12" ht="65">
       <c r="A37" s="19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -6864,7 +7929,7 @@
         <v>9408.8711724137938</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F38:F40)</f>
@@ -6893,7 +7958,7 @@
         <v>9256.9201724137929</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H40">
         <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
@@ -6908,25 +7973,25 @@
     </row>
     <row r="44" spans="1:12" ht="65">
       <c r="A44" s="22" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6940,6 +8005,9 @@
       <c r="C45">
         <v>1775</v>
       </c>
+      <c r="D45">
+        <v>1175.1400000000001</v>
+      </c>
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:12">
@@ -6953,6 +8021,9 @@
       <c r="C46">
         <v>1802</v>
       </c>
+      <c r="D46">
+        <v>1156.96</v>
+      </c>
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:12">
@@ -6965,11 +8036,15 @@
       <c r="C47">
         <v>1794</v>
       </c>
+      <c r="D47">
+        <v>1165.32</v>
+      </c>
       <c r="F47" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -7002,45 +8077,45 @@
     </row>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>9862</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -7059,12 +8134,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -7085,7 +8160,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -7106,18 +8181,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C12">
         <v>9267</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>3463</v>
@@ -7141,7 +8216,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>3568</v>
@@ -7161,7 +8236,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>3566</v>
@@ -7181,7 +8256,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7192,13 +8267,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>9267</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>3531</v>
@@ -7218,7 +8293,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>3904</v>
@@ -7260,45 +8335,45 @@
   <sheetData>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>18468</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -7317,12 +8392,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -7343,7 +8418,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -7364,18 +8439,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C12">
         <v>18468</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -7400,7 +8475,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <f>SUM(F13:H13)</f>
@@ -7421,7 +8496,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -7442,7 +8517,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7453,13 +8528,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>18468</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <f>SUM(F17:H17)</f>
@@ -7480,7 +8555,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <f>SUM(F18:H18)</f>
@@ -7501,14 +8576,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="H25" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7521,53 +8595,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A9:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="9" spans="1:12" ht="39">
       <c r="A9" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C10">
         <v>36454.269</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -7586,12 +8660,12 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="D11" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <f>SUM(F11:H11)</f>
@@ -7612,7 +8686,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="D12" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -7633,18 +8707,18 @@
     </row>
     <row r="13" spans="1:12">
       <c r="L13" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>36454.269</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -7669,7 +8743,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="D15" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E15">
         <f>SUM(F15:H15)</f>
@@ -7690,7 +8764,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <f>SUM(F16:H16)</f>
@@ -7711,7 +8785,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="K17" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7722,13 +8796,13 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>36454.269</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="E19">
         <f>SUM(F19:H19)</f>
@@ -7749,7 +8823,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="D20" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <f>SUM(F20:H20)</f>
@@ -7772,7 +8846,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/mrworkshop12/data/Final_Data.xlsx
+++ b/papers/mrworkshop12/data/Final_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29060" yWindow="-7360" windowWidth="26740" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="35840" yWindow="520" windowWidth="21600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="wc hadoop-pmr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,667 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+  <si>
+    <t>Combine LMR on (8946*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB(replicated)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqeuences</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Data in MB transferred to India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermdiate data generated in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average reduce data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total data exchanged is </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if its reduce intensive , then it takes more time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it is forced to move the data to location where data transfer is high..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local PMR on 6240MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer 3120MB using SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parmiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of concurent transfers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5952*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*2) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 29 minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Data in MB transferred within India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time taken to distribute data to remote machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Data in MB transferred to </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> effective data transfer in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote data distribution= 7mins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on India</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total intermediate data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (5932*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine LMR on (8946*3) MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr of PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB divided into 10GB on india, 10GB hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>distributed-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 mintues remote</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 minutes local</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-setup</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Shuffle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-Reduce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediate data in case of PMR is 18468MB for 20GB whichis 92%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR on Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop MR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr ofr pmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stderr for hmr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local-PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default replication factor - 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>File in GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-scp% of t-paramiko</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data size in GB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer in GB in HMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer in GB in PMR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>%improvement of PMR(paramiko) over HMR(SCP)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>%improvement of PMR(SCP) over HMR(SCP)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to LOCAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 to A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible file transfer time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective data transfer involved in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total intermediate data produced in MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>of weissmann paper..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>related work</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>running bulk of applications on setup of machines.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machines used India, hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffletime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce phase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intermediatedata</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-5r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rreduce-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>tts(scp)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -273,650 +933,6 @@
   </si>
   <si>
     <t>18 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 mintues remote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 minutes local</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-setup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-Shuffle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-Reduce</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediate data in case of PMR is 18468MB for 20GB whichis 92%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr ofr pmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr for hmr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India,8workers,1woker/node, 128MB chunk, 8 reduces,varying input data size(GB)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default replication factor - 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramiko</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>File in GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paramiko</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>t-scp% of t-paramiko</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data size in GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer in GB in HMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer in GB in PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>%improvement of PMR(paramiko) over HMR(SCP)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>%improvement of PMR(SCP) over HMR(SCP)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 to A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negligible file transfer time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer involved in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total intermediate data produced in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>of weissmann paper..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>related work</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>running bulk of applications on setup of machines.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16GB wordcount , local mr, 8 workers, 128MB chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data transferred between map and reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines used India, hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermediatedata</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduces</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5r</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rreduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of concurent transfers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective data transfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5952 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5952*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chunk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuffletime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce phase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 29 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Data in MB transferred within India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time taken to distribute data to remote machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Remote Data in MB transferred to </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> effective data transfer in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remote data distribution= 7mins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR on Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 3120MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total intermediate data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 5932 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (5932*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce-6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from hotel-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*3) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr of PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of concurrent pilot transfers are 8*(2-1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB divided into 10GB on india, 10GB hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop MR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>average</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>stderr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>distributed-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer 8946 MB from India-&gt;hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine LMR on (8946*2) MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80GB(replicated)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqeuences</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> in 14 minutes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Data in MB transferred to India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intermdiate data generated in MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time taken to transfer local data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average reduce data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total data exchanged is </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. if its reduce intensive , then it takes more time.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. it is forced to move the data to location where data transfer is high..</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. With efficient file transfer protocols, pilot-DMR proves to be better.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local-PMR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local PMR on 6240MB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer 3120MB using SCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9GB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 LOCAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -924,11 +940,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1025,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1069,6 +1086,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,11 +1339,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="525300904"/>
-        <c:axId val="525286808"/>
+        <c:axId val="525432824"/>
+        <c:axId val="528915960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525300904"/>
+        <c:axId val="525432824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,14 +1367,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525286808"/>
+        <c:crossAx val="528915960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525286808"/>
+        <c:axId val="528915960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1398,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525300904"/>
+        <c:crossAx val="525432824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,31 +1760,31 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="523400344"/>
-        <c:axId val="523397192"/>
+        <c:axId val="526093416"/>
+        <c:axId val="562607560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="523400344"/>
+        <c:axId val="526093416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523397192"/>
+        <c:crossAx val="562607560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523397192"/>
+        <c:axId val="562607560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523400344"/>
+        <c:crossAx val="526093416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2314,11 +2332,11 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="525241672"/>
-        <c:axId val="525237704"/>
+        <c:axId val="463151448"/>
+        <c:axId val="463223544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525241672"/>
+        <c:axId val="463151448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,14 +2371,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525237704"/>
+        <c:crossAx val="463223544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525237704"/>
+        <c:axId val="463223544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -2397,7 +2415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525241672"/>
+        <c:crossAx val="463151448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500.0"/>
@@ -2660,13 +2678,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2279.393333333333</c:v>
+                  <c:v>2279.39333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4239.813333333334</c:v>
+                  <c:v>4239.81333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7884.053333333333</c:v>
+                  <c:v>7884.05333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7884.053333333333</c:v>
@@ -2675,11 +2693,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="523325416"/>
-        <c:axId val="523314056"/>
+        <c:axId val="459555688"/>
+        <c:axId val="459622424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="523325416"/>
+        <c:axId val="459555688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,14 +2721,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523314056"/>
+        <c:crossAx val="459622424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523314056"/>
+        <c:axId val="459622424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2753,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523325416"/>
+        <c:crossAx val="459555688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2786,6 +2804,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2832,23 +2851,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="524419464"/>
-        <c:axId val="524416440"/>
+        <c:axId val="490532296"/>
+        <c:axId val="562282584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524419464"/>
+        <c:axId val="490532296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524416440"/>
+        <c:crossAx val="562282584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524416440"/>
+        <c:axId val="562282584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,13 +2875,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524419464"/>
+        <c:crossAx val="490532296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2897,6 +2917,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2943,23 +2964,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="524373688"/>
-        <c:axId val="524370712"/>
+        <c:axId val="489828520"/>
+        <c:axId val="490080504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524373688"/>
+        <c:axId val="489828520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524370712"/>
+        <c:crossAx val="490080504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524370712"/>
+        <c:axId val="490080504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,13 +2988,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524373688"/>
+        <c:crossAx val="489828520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3167,38 +3189,37 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="457372408"/>
-        <c:axId val="457375464"/>
+        <c:axId val="528929128"/>
+        <c:axId val="526222984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="457372408"/>
+        <c:axId val="528929128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457375464"/>
+        <c:crossAx val="526222984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457375464"/>
+        <c:axId val="526222984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457372408"/>
+        <c:crossAx val="528929128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3912,7 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K33" sqref="K33:N33"/>
     </sheetView>
   </sheetViews>
@@ -3920,7 +3941,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3930,45 +3951,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4091,28 +4112,28 @@
         <v>69.652011250000001</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -4139,7 +4160,7 @@
     </row>
     <row r="22" spans="1:18" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="J22"/>
       <c r="K22" s="11"/>
@@ -4172,28 +4193,28 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="78">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -4429,7 +4450,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="J33">
         <v>16</v>
@@ -4474,7 +4495,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="J43" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4512,24 +4533,24 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>164.37300000000002</v>
@@ -4547,7 +4568,7 @@
         <v>2929.2380000000003</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I46" s="5">
         <v>684.23799999999994</v>
@@ -4567,7 +4588,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1">
         <v>138.96699999999998</v>
@@ -4585,7 +4606,7 @@
         <v>2437.4606666666668</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="I47" s="5">
         <v>473.4563333333333</v>
@@ -4605,7 +4626,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="H48" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="I48">
         <v>33.993099001840605</v>
@@ -4625,7 +4646,7 @@
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I49">
         <v>127.57381609687643</v>
@@ -4687,10 +4708,8 @@
       <c r="G81" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4702,10 +4721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4713,49 +4732,80 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>213</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>136</v>
+      </c>
+      <c r="J4">
+        <f>3120/1024</f>
+        <v>3.046875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>197</v>
+      </c>
+      <c r="J5">
+        <f>J4/8</f>
+        <v>0.380859375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <f>(5932*2)/1024</f>
+        <v>11.5859375</v>
+      </c>
+      <c r="J6">
+        <f>1248/1024</f>
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -4765,175 +4815,219 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="65">
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="65">
       <c r="A8" s="19" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="G8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="11">
         <v>1996.0322450000001</v>
       </c>
       <c r="B9" s="11">
         <v>1742.8240000000001</v>
       </c>
-      <c r="C9" s="11">
-        <f>3120/43.5</f>
-        <v>71.724137931034477</v>
+      <c r="C9">
+        <v>88.90019531249996</v>
       </c>
       <c r="D9" s="11">
-        <v>637.42506249999997</v>
+        <v>197.4250625</v>
       </c>
       <c r="E9" s="11">
         <f>MAX(A9:B9)+C9+D9</f>
-        <v>2705.1814454310347</v>
+        <v>2282.3575028125001</v>
       </c>
       <c r="F9" s="17">
         <v>3120</v>
       </c>
       <c r="K9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>20</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="11">
         <v>1960.294715</v>
       </c>
       <c r="B10" s="11">
         <v>1813.597</v>
       </c>
-      <c r="C10" s="11">
-        <f>3120/43.5</f>
-        <v>71.724137931034477</v>
+      <c r="C10">
+        <v>88.90019531249996</v>
       </c>
       <c r="D10" s="11">
-        <v>649.32174218750004</v>
+        <v>199.32174218750001</v>
       </c>
       <c r="E10" s="11">
         <f>MAX(A10:B10)+C10+D10</f>
-        <v>2681.3405951185346</v>
+        <v>2248.5166525</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G10">
         <f>AVERAGE(E9:E11)</f>
-        <v>2652.2825510560347</v>
+        <v>2232.7919417708331</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="I10">
         <v>19029605</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="Z10">
+        <f>(19100/2)/8</f>
+        <v>1193.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="11">
         <v>1875.3710450000001</v>
       </c>
       <c r="B11" s="11">
         <v>1738.2349999999999</v>
       </c>
-      <c r="C11" s="11">
-        <f>3120/43.5</f>
-        <v>71.724137931034477</v>
+      <c r="C11">
+        <v>88.90019531249996</v>
       </c>
       <c r="D11" s="11">
-        <v>623.23042968749996</v>
+        <v>203.23042968749999</v>
       </c>
       <c r="E11" s="11">
         <f>MAX(A11:B11)+C11+D11</f>
-        <v>2570.3256126185343</v>
+        <v>2167.5016700000001</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G11">
         <f>1.96*(STDEV(E9:E11)/SQRT(3))</f>
-        <v>81.442668757892889</v>
+        <v>66.787945274149649</v>
       </c>
       <c r="K11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>21</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11">
+        <v>233.42</v>
+      </c>
+      <c r="Z11">
+        <f>1193.75/1024</f>
+        <v>1.165771484375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="K12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>22</v>
+      </c>
+      <c r="W12">
+        <f>3120/1024</f>
+        <v>3.046875</v>
+      </c>
+      <c r="X12">
+        <f>W12*X11</f>
+        <v>711.20156249999991</v>
+      </c>
+      <c r="Z12">
+        <f>Z11*233.42</f>
+        <v>272.1143798828125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="W13">
+        <f>W12/8</f>
+        <v>0.380859375</v>
+      </c>
+      <c r="X13">
+        <f>W13*233.42</f>
+        <v>88.900195312499989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="E14" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="H14">
         <f>(F9-F17)/F17*100</f>
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:26">
       <c r="I15">
         <f>(G10-G18)/G18*100</f>
-        <v>10.423280970223924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="65">
+        <v>-3.9903017397377276</v>
+      </c>
+      <c r="W15">
+        <f>((5932)/8)/1024</f>
+        <v>0.72412109375</v>
+      </c>
+      <c r="X15">
+        <f>W15*233.42</f>
+        <v>169.02434570312499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="65">
       <c r="A16" s="22" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -4944,15 +5038,15 @@
         <v>1542.21</v>
       </c>
       <c r="C17">
-        <f>7*60</f>
-        <v>420</v>
+        <f>350</f>
+        <v>350</v>
       </c>
       <c r="D17">
         <v>242.78</v>
       </c>
       <c r="E17">
         <f>SUM(A17:D17)</f>
-        <v>2468.3000000000002</v>
+        <v>2398.3000000000002</v>
       </c>
       <c r="F17" s="17">
         <v>1248</v>
@@ -4961,7 +5055,7 @@
         <v>19100</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="J17">
         <f>SUM(A17,B17,D17)+(1248/8.7)</f>
@@ -4983,7 +5077,7 @@
       </c>
       <c r="V17">
         <f>(G10-J20)/J20*100</f>
-        <v>24.928626168035727</v>
+        <v>5.1696508327999231</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -4994,21 +5088,21 @@
         <v>1441.11</v>
       </c>
       <c r="C18">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="D18">
         <v>239.64</v>
       </c>
       <c r="E18">
         <f>SUM(A18:D18)</f>
-        <v>2358.3399999999997</v>
+        <v>2280.3399999999997</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G18">
         <f>AVERAGE(E17:E19)</f>
-        <v>2401.9233333333332</v>
+        <v>2325.5899999999997</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:J19" si="0">SUM(A18,B18,D18)+(1248/8.7)</f>
@@ -5036,7 +5130,7 @@
       </c>
       <c r="V18">
         <f>((G30-L45)/L45)*100</f>
-        <v>30.018305344977225</v>
+        <v>6.4748832027290568</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -5047,21 +5141,21 @@
         <v>1446.79</v>
       </c>
       <c r="C19">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="D19">
         <v>240.34</v>
       </c>
       <c r="E19">
         <f>SUM(A19:D19)</f>
-        <v>2379.13</v>
+        <v>2298.13</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <f>1.96*(STDEV(E17:E19)/SQRT(3))</f>
-        <v>66.104153343773305</v>
+        <v>71.963227717505674</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -5090,12 +5184,12 @@
       </c>
       <c r="V19">
         <f>((G56-L63)/L63)*100</f>
-        <v>25.694223221716751</v>
+        <v>6.2088587461652311</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="I20" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="J20">
         <f>AVERAGE(J17:J19)</f>
@@ -5112,11 +5206,55 @@
     </row>
     <row r="21" spans="1:22">
       <c r="I21" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="J21">
         <f>1.96*(STDEV(J17:J19)/SQRT(3))</f>
         <v>68.260444569707076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="D22">
+        <f>(19100/2)/1024</f>
+        <v>9.326171875</v>
+      </c>
+      <c r="G22">
+        <f>19100/1024</f>
+        <v>18.65234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="39">
+      <c r="T23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="U24" s="27">
+        <f>MAX(A9:B9)+88.9+D9</f>
+        <v>2282.3573074999999</v>
+      </c>
+      <c r="V24">
+        <f>SUM(A17:D17)</f>
+        <v>2398.3000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="T25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="T26">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -5125,7 +5263,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -5137,22 +5275,22 @@
     </row>
     <row r="28" spans="1:22" ht="65">
       <c r="A28" s="19" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -5164,18 +5302,22 @@
         <v>2914.9259999999999</v>
       </c>
       <c r="C29" s="11">
-        <f>5932/43.5</f>
-        <v>136.36781609195401</v>
+        <f>169.34</f>
+        <v>169.34</v>
       </c>
       <c r="D29">
-        <v>1254.23</v>
+        <v>354.23</v>
       </c>
       <c r="E29" s="11">
         <f>MAX(A29:B29)+C29+D29</f>
-        <v>4819.4278160919539</v>
+        <v>3952.4</v>
       </c>
       <c r="F29" s="17">
         <v>5932</v>
+      </c>
+      <c r="H29">
+        <f>5932/1024</f>
+        <v>5.79296875</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -5186,35 +5328,43 @@
       <c r="B30">
         <v>2837.6559999999999</v>
       </c>
-      <c r="C30" s="11">
-        <f t="shared" ref="C30:C31" si="1">5932/43.5</f>
-        <v>136.36781609195401</v>
+      <c r="C30" s="25">
+        <f t="shared" ref="C30:C31" si="1">169.34</f>
+        <v>169.34</v>
       </c>
       <c r="D30">
-        <v>1263.3399999999999</v>
+        <v>363.34</v>
       </c>
       <c r="E30" s="11">
         <f>MAX(A30:B30)+C30+D30</f>
-        <v>4832.7978160919538</v>
+        <v>3965.77</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G30">
         <f>AVERAGE(E29:E31)</f>
-        <v>4788.1521494252875</v>
+        <v>3921.1243333333332</v>
+      </c>
+      <c r="H30">
+        <f>H29/8</f>
+        <v>0.72412109375</v>
+      </c>
+      <c r="I30">
+        <f>F41/1024</f>
+        <v>2.4287109375</v>
       </c>
       <c r="Q30" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="R30" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="S30" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="T30" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="2" customFormat="1">
@@ -5225,32 +5375,32 @@
       <c r="B31">
         <v>2869.0210000000002</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="25">
         <f t="shared" si="1"/>
-        <v>136.36781609195401</v>
+        <v>169.34</v>
       </c>
       <c r="D31" s="2">
-        <v>1247.3430000000001</v>
+        <v>347.34300000000002</v>
       </c>
       <c r="E31" s="11">
         <f>MAX(A31:B31)+C31+D31</f>
-        <v>4712.2308160919538</v>
+        <v>3845.203</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <f>1.96*(STDEV(E29:E31)/SQRT(3))</f>
         <v>74.786486497903951</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="Q31">
         <v>2652.2825510560347</v>
       </c>
       <c r="R31">
-        <v>2279.3933333333334</v>
+        <v>2279.3933333333298</v>
       </c>
       <c r="S31">
         <v>81.442668757892889</v>
@@ -5260,7 +5410,7 @@
       </c>
       <c r="U31">
         <f>(Q31-R31)/R31*100</f>
-        <v>16.359143122411279</v>
+        <v>16.359143122411464</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5270,16 +5420,16 @@
         <v>138.52030558906313</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="Q32">
         <v>4528.8221494252866</v>
       </c>
       <c r="R32">
-        <v>4239.8133333333335</v>
+        <v>4239.8133333333299</v>
       </c>
       <c r="S32">
         <v>74.786486497903951</v>
@@ -5289,21 +5439,21 @@
       </c>
       <c r="U32">
         <f t="shared" ref="U32:U34" si="2">(Q32-R32)/R32*100</f>
-        <v>6.8165457620450214</v>
+        <v>6.8165457620451138</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="M33" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="Q33">
         <v>8375.575505747127</v>
       </c>
       <c r="R33">
-        <v>7884.0533333333333</v>
+        <v>7884.0533333333296</v>
       </c>
       <c r="S33">
         <v>32.578079537658802</v>
@@ -5313,15 +5463,15 @@
       </c>
       <c r="U33">
         <f t="shared" si="2"/>
-        <v>6.2343841629744645</v>
+        <v>6.2343841629745125</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="M34" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>7606.7479195402293</v>
@@ -5342,36 +5492,36 @@
     </row>
     <row r="36" spans="1:21">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="H37">
         <f>(G30-G42)/G42*100</f>
-        <v>12.933088628712127</v>
+        <v>-4.4128683843581085</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="65">
       <c r="A40" s="16" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -5383,15 +5533,14 @@
         <v>2759.67</v>
       </c>
       <c r="C41">
-        <f>14*60+3</f>
-        <v>843</v>
+        <v>704</v>
       </c>
       <c r="D41">
         <v>415.92</v>
       </c>
       <c r="E41">
         <f>SUM(A41:D41)</f>
-        <v>4271.83</v>
+        <v>4132.83</v>
       </c>
       <c r="F41" s="17">
         <v>2487</v>
@@ -5413,7 +5562,7 @@
         <v>0.11484290357529794</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -5424,25 +5573,24 @@
         <v>2768.13</v>
       </c>
       <c r="C42">
-        <f>14*60</f>
-        <v>840</v>
+        <v>702</v>
       </c>
       <c r="D42">
         <v>404.53</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:E43" si="3">SUM(A42:D42)</f>
-        <v>4273.09</v>
+        <v>4135.09</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G42">
         <f>AVERAGE(E41:E43)</f>
-        <v>4239.8133333333335</v>
+        <v>4102.1466666666665</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <f>SUM(B42,D42,A42)+(F41/8.7)</f>
@@ -5457,21 +5605,21 @@
         <v>2668.96</v>
       </c>
       <c r="C43">
-        <v>846</v>
+        <v>710</v>
       </c>
       <c r="D43">
         <v>395.24</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>4174.5200000000004</v>
+        <v>4038.5200000000004</v>
       </c>
       <c r="F43" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G43">
         <f>1.96*(STDEV(E41:E43)/SQRT(3))</f>
-        <v>63.991437974886438</v>
+        <v>62.367243459734112</v>
       </c>
       <c r="I43">
         <f>19029605*2</f>
@@ -5490,10 +5638,10 @@
     </row>
     <row r="45" spans="1:21">
       <c r="H45" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="L45">
         <f>AVERAGE(L42:L44)</f>
@@ -5502,16 +5650,16 @@
     </row>
     <row r="46" spans="1:21">
       <c r="C46" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="L46">
         <f>1.96*(STDEV(L42:L44)/SQRT(3))</f>
@@ -5520,7 +5668,7 @@
     </row>
     <row r="52" spans="1:12" s="21" customFormat="1">
       <c r="E52" s="21" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5528,22 +5676,22 @@
     </row>
     <row r="54" spans="1:12" ht="65">
       <c r="A54" s="19" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5559,14 +5707,26 @@
         <v>205.65517241379311</v>
       </c>
       <c r="D55">
-        <v>1978.21</v>
+        <v>678.21</v>
       </c>
       <c r="E55" s="11">
         <f>MAX(A55:B55)+C55+D55</f>
-        <v>8392.4551724137928</v>
+        <v>7092.4551724137937</v>
       </c>
       <c r="F55" s="20">
         <v>8946</v>
+      </c>
+      <c r="H55">
+        <f>8946/1024</f>
+        <v>8.736328125</v>
+      </c>
+      <c r="I55">
+        <f>36454.269/1024</f>
+        <v>35.5998720703125</v>
+      </c>
+      <c r="K55">
+        <f>(8946*2)/1024</f>
+        <v>17.47265625</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -5581,18 +5741,26 @@
         <v>205.65517241379311</v>
       </c>
       <c r="D56">
-        <v>1970.36</v>
+        <v>670.36</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" ref="E56:E57" si="5">MAX(A56:B56)+C56+D56</f>
-        <v>8410.8611724137936</v>
+        <v>7110.8611724137927</v>
       </c>
       <c r="F56" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G56">
         <f>AVERAGE(E55:E57)</f>
-        <v>8385.9088390804609</v>
+        <v>7085.90883908046</v>
+      </c>
+      <c r="H56">
+        <f>H55/8</f>
+        <v>1.092041015625</v>
+      </c>
+      <c r="I56">
+        <f>I55/8</f>
+        <v>4.4499840087890625</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -5607,44 +5775,44 @@
         <v>205.65517241379311</v>
       </c>
       <c r="D57" s="2">
-        <v>1985.31</v>
+        <v>685.31</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="5"/>
-        <v>8354.4101724137927</v>
+        <v>7054.4101724137927</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G57">
         <f>1.96*(STDEV(E55:E57)/SQRT(3))</f>
-        <v>32.578079537658802</v>
+        <v>32.578079538537381</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="65">
       <c r="A59" s="16" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -5656,15 +5824,15 @@
         <v>4859.67</v>
       </c>
       <c r="C60">
-        <f>29*60+3</f>
-        <v>1743</v>
+        <f>1456</f>
+        <v>1456</v>
       </c>
       <c r="D60">
         <v>795.92</v>
       </c>
       <c r="E60">
         <f>SUM(A60:D60)</f>
-        <v>7951.59</v>
+        <v>7664.59</v>
       </c>
       <c r="F60" s="17">
         <v>4425</v>
@@ -5691,22 +5859,21 @@
         <v>4790.34</v>
       </c>
       <c r="C61">
-        <f>28*60</f>
-        <v>1680</v>
+        <v>1432</v>
       </c>
       <c r="D61">
         <v>764.53</v>
       </c>
       <c r="E61">
         <f t="shared" ref="E61:E62" si="6">SUM(A61:D61)</f>
-        <v>7794.87</v>
+        <v>7546.87</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G61">
         <f>AVERAGE(E60:E62)</f>
-        <v>7884.0533333333333</v>
+        <v>7607.0533333333333</v>
       </c>
       <c r="L61">
         <f>SUM(B61,D61,A61)+(4425/8.7)</f>
@@ -5722,22 +5889,21 @@
         <v>4798.96</v>
       </c>
       <c r="C62">
-        <f>29*60</f>
-        <v>1740</v>
+        <v>1444</v>
       </c>
       <c r="D62">
         <v>815.24</v>
       </c>
       <c r="E62">
         <f t="shared" si="6"/>
-        <v>7905.7</v>
+        <v>7609.7</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G62">
         <f>1.96*(STDEV(E60:E62)/SQRT(3))</f>
-        <v>91.174930715904665</v>
+        <v>66.656842662386921</v>
       </c>
       <c r="L62">
         <f>SUM(B62,D62,A62)+(4425/8.7)</f>
@@ -5750,7 +5916,7 @@
         <v>102.16949152542374</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="L63">
         <f>AVERAGE(L60:L62)</f>
@@ -5759,7 +5925,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="K64" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="L64">
         <f>1.96*(STDEV(L60:L62)/SQRT(3))</f>
@@ -5768,32 +5934,32 @@
     </row>
     <row r="65" spans="1:10">
       <c r="B65" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="21" customFormat="1">
       <c r="E66" s="21" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="65">
       <c r="A70" s="19" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5842,7 +6008,7 @@
         <v>7622.033586206896</v>
       </c>
       <c r="F72" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G72">
         <f>AVERAGE(E71:E73)</f>
@@ -5875,7 +6041,7 @@
         <v>7585.5825862068959</v>
       </c>
       <c r="F73" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G73">
         <f>1.96*(STDEV(E71:E73)/SQRT(3))</f>
@@ -5885,7 +6051,7 @@
     <row r="78" spans="1:10">
       <c r="G78">
         <f>AVERAGE(D55:D57)</f>
-        <v>1977.9599999999998</v>
+        <v>677.96</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5893,13 +6059,13 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5917,26 +6083,26 @@
         <v>5.4</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="2:15">
       <c r="C148" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="2:15" ht="26">
       <c r="B149" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D149" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="2:15">
@@ -6019,30 +6185,30 @@
     </row>
     <row r="157" spans="2:15">
       <c r="C157" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="I157" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="J157" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="K157" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="2:15" ht="26">
       <c r="B158" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6304,122 +6470,122 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="C1" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="G7" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="C10" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="G11" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="39">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>9862</v>
@@ -6436,7 +6602,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -6485,10 +6651,10 @@
         <v>9267</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6504,7 +6670,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>9838</v>
@@ -6547,58 +6713,58 @@
     </row>
     <row r="32" spans="1:13">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="C34" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="52">
       <c r="A40" s="2" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>9862</v>
@@ -6612,7 +6778,7 @@
         <v>4604</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -6626,7 +6792,7 @@
         <v>9267</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="K41" s="17">
         <f>MAX('10GB'!E21:E24,'10GB'!E27:E30)</f>
@@ -6635,10 +6801,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>9838</v>
@@ -6652,7 +6818,7 @@
         <v>4663</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -6665,7 +6831,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="J43" s="18" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="K43" s="17">
         <f>3120</f>
@@ -6673,6 +6839,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6695,39 +6862,39 @@
   <sheetData>
     <row r="1" spans="1:12" ht="65">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>18468</v>
@@ -6741,17 +6908,17 @@
         <v>9184</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>18456</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -6764,10 +6931,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>18468</v>
@@ -6781,10 +6948,10 @@
         <v>9296</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -6794,7 +6961,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="18" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="K4" s="17">
         <f>2980+2985</f>
@@ -6803,27 +6970,27 @@
     </row>
     <row r="10" spans="1:12" ht="52">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>18468</v>
@@ -6871,18 +7038,18 @@
         <v>4552</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -6898,7 +7065,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>18468</v>
@@ -6936,6 +7103,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6948,49 +7116,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>36454.269</v>
@@ -7004,17 +7172,17 @@
         <v>17233</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D3)</f>
         <v>34978</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="K2" s="17">
         <f>MAX(E11:E14,E17:E20)</f>
@@ -7023,10 +7191,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>36454.269</v>
@@ -7040,10 +7208,10 @@
         <v>17123</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <f>SUM(D2:D3)</f>
@@ -7053,7 +7221,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="J4" s="18" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="K4" s="17">
         <f>5952</f>
@@ -7062,27 +7230,27 @@
     </row>
     <row r="10" spans="1:11" ht="52">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>36454.269</v>
@@ -7116,7 +7284,7 @@
         <v>12.138496042809143</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7151,13 +7319,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7177,10 +7345,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>36454.269</v>
@@ -7235,9 +7403,17 @@
         <v>0.91349999999999998</v>
       </c>
     </row>
+    <row r="30" spans="1:8">
+      <c r="C30">
+        <f>(C11+C18)/1024</f>
+        <v>71.199744140625</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7265,7 +7441,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -7277,25 +7453,25 @@
     </row>
     <row r="2" spans="1:16" ht="65">
       <c r="A2" s="19" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="H2" s="19"/>
       <c r="O2">
@@ -7359,7 +7535,7 @@
         <v>3014.5888529310346</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <f>AVERAGE(F3:F5)</f>
@@ -7395,7 +7571,7 @@
         <v>2882.3651829310347</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="H5">
         <f>1.96*(STDEV(F3:F5)/SQRT(3))</f>
@@ -7447,25 +7623,25 @@
     </row>
     <row r="11" spans="1:16" ht="65">
       <c r="A11" s="22" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7494,13 +7670,13 @@
         <v>28396</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7522,14 +7698,14 @@
         <v>2263.6266666666666</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="G13">
         <f>AVERAGE(E12:E14)</f>
         <v>2318.4266666666667</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="L13">
         <v>2984.3501395977014</v>
@@ -7560,14 +7736,14 @@
         <v>2328.2266666666669</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <f>1.96*(STDEV(E12:E14)/SQRT(3))</f>
         <v>57.278072779497222</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="L14">
         <v>2416.8599999999997</v>
@@ -7578,7 +7754,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="K17" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>102.66744486459044</v>
@@ -7592,7 +7768,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="K18" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>53.54597837390223</v>
@@ -7607,7 +7783,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -7619,25 +7795,25 @@
     </row>
     <row r="22" spans="1:14" ht="65">
       <c r="A22" s="19" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -7689,7 +7865,7 @@
         <v>5709.8978160919542</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="H24">
         <f>AVERAGE(F23:F25)</f>
@@ -7719,7 +7895,7 @@
         <v>5851.6078160919533</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="H25">
         <f>1.96*(STDEV(F23:F25)/SQRT(3))</f>
@@ -7735,25 +7911,25 @@
     </row>
     <row r="29" spans="1:14" ht="65">
       <c r="A29" s="22" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7801,7 +7977,7 @@
         <v>4508.99</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="G31">
         <f>AVERAGE(E30:E32)</f>
@@ -7826,7 +8002,7 @@
         <v>4642.45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <f>1.96*(STDEV(E30:E32)/SQRT(3))</f>
@@ -7848,7 +8024,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -7860,25 +8036,25 @@
     </row>
     <row r="37" spans="1:12" ht="65">
       <c r="A37" s="19" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -7929,7 +8105,7 @@
         <v>9408.8711724137938</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F38:F40)</f>
@@ -7958,7 +8134,7 @@
         <v>9256.9201724137929</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <f>1.96*(STDEV(F38:F40)/SQRT(3))</f>
@@ -7973,25 +8149,25 @@
     </row>
     <row r="44" spans="1:12" ht="65">
       <c r="A44" s="22" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -8042,9 +8218,9 @@
       <c r="F47" s="20"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8077,45 +8253,45 @@
     </row>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>9862</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -8134,12 +8310,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -8160,7 +8336,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -8181,18 +8357,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>9267</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E12">
         <v>3463</v>
@@ -8216,7 +8392,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E13">
         <v>3568</v>
@@ -8236,7 +8412,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>3566</v>
@@ -8256,7 +8432,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8267,13 +8443,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C17">
         <v>9267</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>3531</v>
@@ -8293,7 +8469,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E18">
         <v>3904</v>
@@ -8335,45 +8511,45 @@
   <sheetData>
     <row r="7" spans="1:12" ht="39">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>18468</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <f>SUM(F8:H8)</f>
@@ -8392,12 +8568,12 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <f>SUM(F9:H9)</f>
@@ -8418,7 +8594,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -8439,18 +8615,18 @@
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>18468</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -8475,7 +8651,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="D13" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E13">
         <f>SUM(F13:H13)</f>
@@ -8496,7 +8672,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -8517,7 +8693,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="K15" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8528,13 +8704,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C17">
         <v>18468</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E17">
         <f>SUM(F17:H17)</f>
@@ -8555,7 +8731,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="D18" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E18">
         <f>SUM(F18:H18)</f>
@@ -8576,7 +8752,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="H25" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -8603,45 +8779,45 @@
   <sheetData>
     <row r="9" spans="1:12" ht="39">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>36454.269</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <f>SUM(F10:H10)</f>
@@ -8660,12 +8836,12 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="D11" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E11">
         <f>SUM(F11:H11)</f>
@@ -8686,7 +8862,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="D12" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E12">
         <f>SUM(F12:H12)</f>
@@ -8707,18 +8883,18 @@
     </row>
     <row r="13" spans="1:12">
       <c r="L13" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C14">
         <v>36454.269</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <f>SUM(F14:H14)</f>
@@ -8743,7 +8919,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="D15" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E15">
         <f>SUM(F15:H15)</f>
@@ -8764,7 +8940,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <f>SUM(F16:H16)</f>
@@ -8785,7 +8961,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="K17" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -8796,13 +8972,13 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C19">
         <v>36454.269</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E19">
         <f>SUM(F19:H19)</f>
@@ -8823,7 +8999,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="D20" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E20">
         <f>SUM(F20:H20)</f>
